--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>SJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,109 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>48100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>35800</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>32900</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>25000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -770,19 +784,25 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,19 +838,21 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,25 +990,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>40300</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>28300</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>26800</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -964,40 +1018,52 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>7800</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>7500</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,37 +1075,45 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>1800</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>11300</v>
       </c>
       <c r="F20" s="3">
-        <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1141,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>9300</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>18500</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>5700</v>
       </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-1800</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>-11300</v>
       </c>
       <c r="F32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>9300</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>18500</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>5700</v>
       </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>9300</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>18500</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>5700</v>
       </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1771,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>27100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>17600</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,153 +1841,189 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>54400</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>55300</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>59300</v>
+        <v>800</v>
       </c>
       <c r="E47" s="3">
-        <v>58600</v>
+        <v>800</v>
       </c>
       <c r="F47" s="3">
-        <v>58300</v>
+        <v>9000</v>
       </c>
       <c r="G47" s="3">
-        <v>58000</v>
+        <v>8900</v>
       </c>
       <c r="H47" s="3">
-        <v>57700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>8900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>50600</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +2086,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -1873,16 +2113,22 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59400</v>
+        <v>107000</v>
       </c>
       <c r="E54" s="3">
-        <v>58600</v>
+        <v>56400</v>
       </c>
       <c r="F54" s="3">
-        <v>58500</v>
+        <v>9000</v>
       </c>
       <c r="G54" s="3">
-        <v>58400</v>
+        <v>8900</v>
       </c>
       <c r="H54" s="3">
-        <v>58200</v>
+        <v>8900</v>
       </c>
       <c r="I54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,16 +2225,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>5200</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -1985,28 +2247,34 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2015,27 +2283,33 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>28200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+        <v>24900</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2046,101 +2320,125 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>32000</v>
       </c>
       <c r="E60" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000</v>
+        <v>24800</v>
       </c>
       <c r="E62" s="3">
-        <v>2000</v>
+        <v>12900</v>
       </c>
       <c r="F62" s="3">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3600</v>
+        <v>56800</v>
       </c>
       <c r="E66" s="3">
-        <v>2700</v>
+        <v>43000</v>
       </c>
       <c r="F66" s="3">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>58600</v>
       </c>
       <c r="E72" s="3">
-        <v>100</v>
+        <v>49300</v>
       </c>
       <c r="F72" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G72" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
       <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55800</v>
+        <v>50300</v>
       </c>
       <c r="E76" s="3">
-        <v>55900</v>
+        <v>13400</v>
       </c>
       <c r="F76" s="3">
-        <v>56000</v>
+        <v>8500</v>
       </c>
       <c r="G76" s="3">
-        <v>55900</v>
+        <v>8500</v>
       </c>
       <c r="H76" s="3">
-        <v>55800</v>
+        <v>8500</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+        <v>8500</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>9300</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>18500</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>5700</v>
       </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,25 +3236,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -2834,11 +3268,17 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-600</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-57500</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-57500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-8700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>800</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>58200</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>58100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -726,13 +726,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>48100</v>
+        <v>48300</v>
       </c>
       <c r="E8" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="F8" s="3">
-        <v>32900</v>
+        <v>33000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -761,13 +761,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37200</v>
+        <v>37400</v>
       </c>
       <c r="E9" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="F9" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -796,10 +796,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="E10" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F10" s="3">
         <v>7900</v>
@@ -998,13 +998,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40300</v>
+        <v>40500</v>
       </c>
       <c r="E17" s="3">
-        <v>28300</v>
+        <v>28400</v>
       </c>
       <c r="F17" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1033,7 +1033,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E18" s="3">
         <v>7500</v>
@@ -1083,7 +1083,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="3">
         <v>11300</v>
@@ -1191,10 +1191,10 @@
         <v>9700</v>
       </c>
       <c r="E23" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="F23" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>9300</v>
       </c>
       <c r="E26" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="F26" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>9300</v>
       </c>
       <c r="E27" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="F27" s="3">
         <v>5700</v>
@@ -1503,7 +1503,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E32" s="3">
         <v>-11300</v>
@@ -1541,7 +1541,7 @@
         <v>9300</v>
       </c>
       <c r="E33" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="F33" s="3">
         <v>5700</v>
@@ -1611,7 +1611,7 @@
         <v>9300</v>
       </c>
       <c r="E35" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="F35" s="3">
         <v>5700</v>
@@ -1713,10 +1713,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="E41" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="E43" s="3">
         <v>17600</v>
@@ -1888,10 +1888,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54400</v>
+        <v>54600</v>
       </c>
       <c r="E46" s="3">
-        <v>55300</v>
+        <v>55500</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1929,16 +1929,16 @@
         <v>800</v>
       </c>
       <c r="F47" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G47" s="3">
         <v>9000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>8900</v>
       </c>
       <c r="H47" s="3">
         <v>8900</v>
       </c>
       <c r="I47" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="J47" s="3">
         <v>8800</v>
@@ -1993,7 +1993,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50600</v>
+        <v>50800</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2168,16 +2168,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107000</v>
+        <v>107500</v>
       </c>
       <c r="E54" s="3">
-        <v>56400</v>
+        <v>56700</v>
       </c>
       <c r="F54" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G54" s="3">
         <v>9000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8900</v>
       </c>
       <c r="H54" s="3">
         <v>8900</v>
@@ -2236,7 +2236,7 @@
         <v>3800</v>
       </c>
       <c r="E57" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="E59" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2338,10 +2338,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="E60" s="3">
-        <v>30100</v>
+        <v>30300</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="E62" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -2548,10 +2548,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56800</v>
+        <v>57000</v>
       </c>
       <c r="E66" s="3">
-        <v>43000</v>
+        <v>43200</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
@@ -2738,10 +2738,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>58600</v>
+        <v>58900</v>
       </c>
       <c r="E72" s="3">
-        <v>49300</v>
+        <v>49500</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="E76" s="3">
         <v>13400</v>
@@ -2890,7 +2890,7 @@
         <v>8500</v>
       </c>
       <c r="H76" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="I76" s="3">
         <v>8500</v>
@@ -2991,7 +2991,7 @@
         <v>9300</v>
       </c>
       <c r="E81" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="F81" s="3">
         <v>5700</v>
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="J94" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3608,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="J100" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>SJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,80 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>48300</v>
+        <v>70900</v>
       </c>
       <c r="E8" s="3">
-        <v>35900</v>
+        <v>49400</v>
       </c>
       <c r="F8" s="3">
-        <v>33000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>36700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>33700</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,8 +749,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -755,22 +758,25 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37400</v>
+        <v>58400</v>
       </c>
       <c r="E9" s="3">
-        <v>26900</v>
+        <v>38100</v>
       </c>
       <c r="F9" s="3">
-        <v>25100</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>27500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>25700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -790,22 +796,25 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="E10" s="3">
-        <v>9000</v>
+        <v>11200</v>
       </c>
       <c r="F10" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>9200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,22 +852,23 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1000</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+      <c r="G12" s="3">
+        <v>1000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,57 +1017,61 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40500</v>
+        <v>62500</v>
       </c>
       <c r="E17" s="3">
-        <v>28400</v>
+        <v>41300</v>
       </c>
       <c r="F17" s="3">
-        <v>26900</v>
+        <v>29000</v>
       </c>
       <c r="G17" s="3">
+        <v>27500</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7900</v>
+        <v>8400</v>
       </c>
       <c r="E18" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="F18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>7700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1053,17 +1082,20 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,23 +1109,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
-        <v>11300</v>
-      </c>
       <c r="F20" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,17 +1136,20 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,22 +1221,25 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9700</v>
+        <v>-6800</v>
       </c>
       <c r="E23" s="3">
-        <v>18900</v>
+        <v>9900</v>
       </c>
       <c r="F23" s="3">
-        <v>6100</v>
+        <v>19300</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1209,30 +1251,33 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>300</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1243,8 +1288,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,22 +1335,25 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9300</v>
+        <v>-6900</v>
       </c>
       <c r="E26" s="3">
-        <v>18600</v>
+        <v>9500</v>
       </c>
       <c r="F26" s="3">
-        <v>5800</v>
+        <v>19000</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1314,51 +1365,57 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9300</v>
+        <v>-6900</v>
       </c>
       <c r="E27" s="3">
-        <v>18600</v>
+        <v>9500</v>
       </c>
       <c r="F27" s="3">
-        <v>5700</v>
+        <v>19000</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,23 +1563,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-11300</v>
-      </c>
       <c r="F32" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1523,52 +1592,58 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9300</v>
+        <v>-6900</v>
       </c>
       <c r="E33" s="3">
-        <v>18600</v>
+        <v>9500</v>
       </c>
       <c r="F33" s="3">
-        <v>5700</v>
+        <v>19000</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9300</v>
+        <v>-6900</v>
       </c>
       <c r="E35" s="3">
-        <v>18600</v>
+        <v>9500</v>
       </c>
       <c r="F35" s="3">
-        <v>5700</v>
+        <v>19000</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,19 +1792,20 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25500</v>
+        <v>35100</v>
       </c>
       <c r="E41" s="3">
-        <v>29200</v>
+        <v>26000</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>29800</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1731,19 +1817,22 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,19 +1866,22 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27200</v>
+        <v>35600</v>
       </c>
       <c r="E43" s="3">
-        <v>17600</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>27800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>18000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1803,8 +1895,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1812,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,19 +1942,22 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
-        <v>8700</v>
-      </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1873,8 +1971,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -1882,19 +1980,22 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54600</v>
+        <v>72800</v>
       </c>
       <c r="E46" s="3">
-        <v>55500</v>
+        <v>55700</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>56700</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -1903,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -1912,13 +2013,16 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1929,31 +2033,34 @@
         <v>800</v>
       </c>
       <c r="F47" s="3">
+        <v>800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H47" s="3">
         <v>9100</v>
       </c>
-      <c r="G47" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>8900</v>
-      </c>
       <c r="I47" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="J47" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K47" s="3">
         <v>8800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1961,11 +2068,11 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1978,8 +2085,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1987,20 +2094,23 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50800</v>
+        <v>51700</v>
       </c>
       <c r="E49" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2123,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,22 +2208,25 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2119,16 +2238,19 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107500</v>
+        <v>126700</v>
       </c>
       <c r="E54" s="3">
-        <v>56700</v>
+        <v>109800</v>
       </c>
       <c r="F54" s="3">
+        <v>57900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H54" s="3">
         <v>9100</v>
       </c>
-      <c r="G54" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K54" s="3">
         <v>8900</v>
       </c>
-      <c r="I54" s="3">
-        <v>8900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,19 +2356,20 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3800</v>
+        <v>10500</v>
       </c>
       <c r="E57" s="3">
-        <v>5300</v>
+        <v>3900</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2253,8 +2383,8 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2262,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2273,8 +2406,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2289,30 +2422,33 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28300</v>
+        <v>32800</v>
       </c>
       <c r="E59" s="3">
-        <v>25000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+        <v>28900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>25500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2326,25 +2462,28 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32100</v>
+        <v>43300</v>
       </c>
       <c r="E60" s="3">
-        <v>30300</v>
+        <v>32800</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>30900</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -2359,16 +2498,19 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2379,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -2394,7 +2536,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2402,19 +2544,22 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24900</v>
+        <v>11700</v>
       </c>
       <c r="E62" s="3">
-        <v>13000</v>
+        <v>25400</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>13200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -2428,8 +2573,8 @@
       <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>300</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,22 +2696,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57000</v>
+        <v>55000</v>
       </c>
       <c r="E66" s="3">
-        <v>43200</v>
+        <v>58200</v>
       </c>
       <c r="F66" s="3">
-        <v>500</v>
+        <v>44100</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -2572,13 +2729,16 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,19 +2902,22 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>58900</v>
+        <v>53200</v>
       </c>
       <c r="E72" s="3">
-        <v>49500</v>
+        <v>60100</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>50600</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
@@ -2759,16 +2932,19 @@
         <v>0</v>
       </c>
       <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50500</v>
+        <v>71700</v>
       </c>
       <c r="E76" s="3">
-        <v>13400</v>
+        <v>51500</v>
       </c>
       <c r="F76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K76" s="3">
         <v>8500</v>
       </c>
-      <c r="G76" s="3">
-        <v>8500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>8500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9300</v>
+        <v>-6900</v>
       </c>
       <c r="E81" s="3">
-        <v>18600</v>
+        <v>9500</v>
       </c>
       <c r="F81" s="3">
-        <v>5700</v>
+        <v>19000</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3253,8 +3469,8 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3263,22 +3479,25 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3408,32 +3637,35 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8800</v>
       </c>
-      <c r="J94" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3598,32 +3843,35 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K100" s="3">
         <v>8900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3668,8 +3919,8 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -3681,15 +3932,18 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>SJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,87 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>70900</v>
+        <v>56200</v>
       </c>
       <c r="E8" s="3">
-        <v>49400</v>
+        <v>70000</v>
       </c>
       <c r="F8" s="3">
-        <v>36700</v>
+        <v>48700</v>
       </c>
       <c r="G8" s="3">
-        <v>33700</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>36200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>33300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -752,8 +756,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -761,25 +765,28 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>58400</v>
+        <v>43900</v>
       </c>
       <c r="E9" s="3">
-        <v>38100</v>
+        <v>57700</v>
       </c>
       <c r="F9" s="3">
-        <v>27500</v>
+        <v>37700</v>
       </c>
       <c r="G9" s="3">
-        <v>25700</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>27200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>25300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -799,25 +806,28 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="E10" s="3">
-        <v>11200</v>
+        <v>12300</v>
       </c>
       <c r="F10" s="3">
-        <v>9200</v>
+        <v>11100</v>
       </c>
       <c r="G10" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>9100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,25 +866,26 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1000</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>1000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,63 +1044,67 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62500</v>
+        <v>46900</v>
       </c>
       <c r="E17" s="3">
-        <v>41300</v>
+        <v>61700</v>
       </c>
       <c r="F17" s="3">
-        <v>29000</v>
+        <v>40800</v>
       </c>
       <c r="G17" s="3">
-        <v>27500</v>
+        <v>28600</v>
       </c>
       <c r="H17" s="3">
+        <v>27100</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8400</v>
+        <v>9300</v>
       </c>
       <c r="E18" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="F18" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G18" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1085,17 +1115,20 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,26 +1143,27 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15200</v>
+        <v>2200</v>
       </c>
       <c r="E20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
-        <v>11600</v>
-      </c>
       <c r="G20" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1139,17 +1173,20 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,31 +1223,34 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1224,25 +1264,28 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6800</v>
+        <v>11400</v>
       </c>
       <c r="E23" s="3">
-        <v>9900</v>
+        <v>-6700</v>
       </c>
       <c r="F23" s="3">
-        <v>19300</v>
+        <v>9800</v>
       </c>
       <c r="G23" s="3">
-        <v>6200</v>
+        <v>19000</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1254,33 +1297,36 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1291,8 +1337,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,25 +1387,28 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6900</v>
+        <v>10900</v>
       </c>
       <c r="E26" s="3">
-        <v>9500</v>
+        <v>-6800</v>
       </c>
       <c r="F26" s="3">
-        <v>19000</v>
+        <v>9400</v>
       </c>
       <c r="G26" s="3">
-        <v>5900</v>
+        <v>18700</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1368,54 +1420,60 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6900</v>
+        <v>10900</v>
       </c>
       <c r="E27" s="3">
-        <v>9500</v>
+        <v>-6800</v>
       </c>
       <c r="F27" s="3">
-        <v>19000</v>
+        <v>9400</v>
       </c>
       <c r="G27" s="3">
-        <v>5900</v>
+        <v>18700</v>
       </c>
       <c r="H27" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,26 +1633,29 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15200</v>
+        <v>-2200</v>
       </c>
       <c r="E32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-11600</v>
-      </c>
       <c r="G32" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1595,55 +1665,61 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6900</v>
+        <v>10900</v>
       </c>
       <c r="E33" s="3">
-        <v>9500</v>
+        <v>-6800</v>
       </c>
       <c r="F33" s="3">
-        <v>19000</v>
+        <v>9400</v>
       </c>
       <c r="G33" s="3">
-        <v>5900</v>
+        <v>18700</v>
       </c>
       <c r="H33" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6900</v>
+        <v>10900</v>
       </c>
       <c r="E35" s="3">
-        <v>9500</v>
+        <v>-6800</v>
       </c>
       <c r="F35" s="3">
-        <v>19000</v>
+        <v>9400</v>
       </c>
       <c r="G35" s="3">
-        <v>5900</v>
+        <v>18700</v>
       </c>
       <c r="H35" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,22 +1879,23 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35100</v>
+        <v>41300</v>
       </c>
       <c r="E41" s="3">
-        <v>26000</v>
+        <v>34600</v>
       </c>
       <c r="F41" s="3">
-        <v>29800</v>
+        <v>25700</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1820,42 +1907,45 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1869,22 +1959,25 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>35600</v>
+        <v>30100</v>
       </c>
       <c r="E43" s="3">
-        <v>27800</v>
+        <v>35100</v>
       </c>
       <c r="F43" s="3">
-        <v>18000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>27400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>17800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1898,8 +1991,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,22 +2041,25 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
-        <v>8900</v>
-      </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1974,8 +2073,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -1983,22 +2082,25 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>72800</v>
+        <v>80400</v>
       </c>
       <c r="E46" s="3">
-        <v>55700</v>
+        <v>71900</v>
       </c>
       <c r="F46" s="3">
-        <v>56700</v>
+        <v>55000</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2007,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2016,18 +2118,21 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="E47" s="3">
         <v>800</v>
@@ -2036,31 +2141,34 @@
         <v>800</v>
       </c>
       <c r="G47" s="3">
-        <v>9300</v>
+        <v>800</v>
       </c>
       <c r="H47" s="3">
         <v>9100</v>
       </c>
       <c r="I47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K47" s="3">
         <v>9100</v>
       </c>
-      <c r="J47" s="3">
-        <v>9100</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2071,11 +2179,11 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2088,8 +2196,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2097,23 +2205,26 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>51700</v>
+        <v>50900</v>
       </c>
       <c r="E49" s="3">
-        <v>51900</v>
+        <v>51100</v>
       </c>
       <c r="F49" s="3">
+        <v>51200</v>
+      </c>
+      <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2237,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,25 +2328,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2241,16 +2361,19 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>126700</v>
+        <v>134500</v>
       </c>
       <c r="E54" s="3">
-        <v>109800</v>
+        <v>125000</v>
       </c>
       <c r="F54" s="3">
-        <v>57900</v>
+        <v>108400</v>
       </c>
       <c r="G54" s="3">
-        <v>9300</v>
+        <v>57100</v>
       </c>
       <c r="H54" s="3">
         <v>9100</v>
       </c>
       <c r="I54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K54" s="3">
         <v>9100</v>
       </c>
-      <c r="J54" s="3">
-        <v>9100</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,22 +2487,23 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10500</v>
+        <v>4400</v>
       </c>
       <c r="E57" s="3">
-        <v>3900</v>
+        <v>10300</v>
       </c>
       <c r="F57" s="3">
-        <v>5400</v>
+        <v>3800</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2386,8 +2517,8 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2395,13 +2526,16 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2412,8 +2546,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2425,33 +2559,36 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>32800</v>
+        <v>34800</v>
       </c>
       <c r="E59" s="3">
-        <v>28900</v>
+        <v>32400</v>
       </c>
       <c r="F59" s="3">
-        <v>25500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+        <v>28600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>25200</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2465,28 +2602,31 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43300</v>
+        <v>41100</v>
       </c>
       <c r="E60" s="3">
-        <v>32800</v>
+        <v>42700</v>
       </c>
       <c r="F60" s="3">
-        <v>30900</v>
+        <v>32400</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>30500</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -2501,16 +2641,19 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2524,10 +2667,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -2539,7 +2682,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2547,22 +2690,25 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="E62" s="3">
-        <v>25400</v>
+        <v>11500</v>
       </c>
       <c r="F62" s="3">
-        <v>13200</v>
+        <v>25100</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>13100</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -2576,8 +2722,8 @@
       <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>300</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,25 +2854,28 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55000</v>
+        <v>52700</v>
       </c>
       <c r="E66" s="3">
-        <v>58200</v>
+        <v>54300</v>
       </c>
       <c r="F66" s="3">
-        <v>44100</v>
+        <v>57500</v>
       </c>
       <c r="G66" s="3">
+        <v>43600</v>
+      </c>
+      <c r="H66" s="3">
         <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
@@ -2732,13 +2890,16 @@
         <v>400</v>
       </c>
       <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,22 +3076,25 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>53200</v>
+        <v>63400</v>
       </c>
       <c r="E72" s="3">
-        <v>60100</v>
+        <v>52500</v>
       </c>
       <c r="F72" s="3">
-        <v>50600</v>
+        <v>59300</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>49900</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -2935,16 +3109,19 @@
         <v>0</v>
       </c>
       <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71700</v>
+        <v>81800</v>
       </c>
       <c r="E76" s="3">
-        <v>51500</v>
+        <v>70800</v>
       </c>
       <c r="F76" s="3">
-        <v>13700</v>
+        <v>50900</v>
       </c>
       <c r="G76" s="3">
+        <v>13500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K76" s="3">
         <v>8700</v>
       </c>
-      <c r="H76" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>8700</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8500</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6900</v>
+        <v>10900</v>
       </c>
       <c r="E81" s="3">
-        <v>9500</v>
+        <v>-6800</v>
       </c>
       <c r="F81" s="3">
-        <v>19000</v>
+        <v>9400</v>
       </c>
       <c r="G81" s="3">
-        <v>5900</v>
+        <v>18700</v>
       </c>
       <c r="H81" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3472,8 +3689,8 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -3482,22 +3699,25 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3640,32 +3870,35 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3846,32 +4092,35 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>9100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8900</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3922,8 +4174,8 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -3935,15 +4187,18 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>SJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>56200</v>
+        <v>64600</v>
       </c>
       <c r="E8" s="3">
-        <v>70000</v>
+        <v>61600</v>
       </c>
       <c r="F8" s="3">
-        <v>48700</v>
+        <v>57100</v>
       </c>
       <c r="G8" s="3">
-        <v>36200</v>
+        <v>71100</v>
       </c>
       <c r="H8" s="3">
-        <v>33300</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>49500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>36800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>33900</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -759,40 +767,46 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>43900</v>
+        <v>53300</v>
       </c>
       <c r="E9" s="3">
-        <v>57700</v>
+        <v>49000</v>
       </c>
       <c r="F9" s="3">
-        <v>37700</v>
+        <v>44600</v>
       </c>
       <c r="G9" s="3">
-        <v>27200</v>
+        <v>58600</v>
       </c>
       <c r="H9" s="3">
-        <v>25300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>38300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>25700</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -809,31 +823,37 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12300</v>
+        <v>11300</v>
       </c>
       <c r="E10" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="F10" s="3">
-        <v>11100</v>
+        <v>12500</v>
       </c>
       <c r="G10" s="3">
-        <v>9100</v>
+        <v>12500</v>
       </c>
       <c r="H10" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -850,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,32 +893,34 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,31 +1097,33 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46900</v>
+        <v>58200</v>
       </c>
       <c r="E17" s="3">
-        <v>61700</v>
+        <v>54400</v>
       </c>
       <c r="F17" s="3">
-        <v>40800</v>
+        <v>47700</v>
       </c>
       <c r="G17" s="3">
-        <v>28600</v>
+        <v>62700</v>
       </c>
       <c r="H17" s="3">
-        <v>27100</v>
+        <v>41500</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>29100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>27600</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1083,34 +1137,40 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9300</v>
+        <v>6400</v>
       </c>
       <c r="E18" s="3">
-        <v>8300</v>
+        <v>7200</v>
       </c>
       <c r="F18" s="3">
-        <v>7900</v>
+        <v>9400</v>
       </c>
       <c r="G18" s="3">
-        <v>7600</v>
+        <v>8400</v>
       </c>
       <c r="H18" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>8100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1118,17 +1178,23 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,49 +1210,57 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
-        <v>11400</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1199,8 +1273,8 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-6400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1226,19 +1300,25 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1252,11 +1332,11 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1267,31 +1347,37 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="E23" s="3">
-        <v>-6700</v>
+        <v>14900</v>
       </c>
       <c r="F23" s="3">
-        <v>9800</v>
+        <v>11600</v>
       </c>
       <c r="G23" s="3">
-        <v>19000</v>
+        <v>-6800</v>
       </c>
       <c r="H23" s="3">
-        <v>6100</v>
+        <v>10000</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>19400</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1300,57 +1386,69 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,31 +1488,37 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="E26" s="3">
-        <v>-6800</v>
+        <v>14400</v>
       </c>
       <c r="F26" s="3">
-        <v>9400</v>
+        <v>11100</v>
       </c>
       <c r="G26" s="3">
-        <v>18700</v>
+        <v>-6900</v>
       </c>
       <c r="H26" s="3">
-        <v>5800</v>
+        <v>9600</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1423,42 +1527,48 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="E27" s="3">
-        <v>-6800</v>
+        <v>14400</v>
       </c>
       <c r="F27" s="3">
-        <v>9400</v>
+        <v>11100</v>
       </c>
       <c r="G27" s="3">
-        <v>18700</v>
+        <v>-6900</v>
       </c>
       <c r="H27" s="3">
-        <v>5800</v>
+        <v>9600</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1469,11 +1579,17 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,75 +1770,87 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
-        <v>15000</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>15200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="E33" s="3">
-        <v>-6800</v>
+        <v>14400</v>
       </c>
       <c r="F33" s="3">
-        <v>9400</v>
+        <v>11100</v>
       </c>
       <c r="G33" s="3">
-        <v>18700</v>
+        <v>-6900</v>
       </c>
       <c r="H33" s="3">
-        <v>5800</v>
+        <v>9600</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -1715,11 +1861,17 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,34 +1911,40 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="E35" s="3">
-        <v>-6800</v>
+        <v>14400</v>
       </c>
       <c r="F35" s="3">
-        <v>9400</v>
+        <v>11100</v>
       </c>
       <c r="G35" s="3">
-        <v>18700</v>
+        <v>-6900</v>
       </c>
       <c r="H35" s="3">
-        <v>5800</v>
+        <v>9600</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -1797,57 +1955,69 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,28 +2052,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41300</v>
+        <v>45700</v>
       </c>
       <c r="E41" s="3">
-        <v>34600</v>
+        <v>44900</v>
       </c>
       <c r="F41" s="3">
-        <v>25700</v>
+        <v>42000</v>
       </c>
       <c r="G41" s="3">
-        <v>29400</v>
+        <v>35200</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>29900</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1910,30 +2084,36 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>6400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1947,11 +2127,11 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1962,28 +2142,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30100</v>
+        <v>37800</v>
       </c>
       <c r="E43" s="3">
-        <v>35100</v>
+        <v>38100</v>
       </c>
       <c r="F43" s="3">
-        <v>27400</v>
+        <v>30600</v>
       </c>
       <c r="G43" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>35700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>27900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>18100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1994,17 +2180,23 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,28 +2236,34 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2076,99 +2274,117 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>80400</v>
+        <v>94000</v>
       </c>
       <c r="E46" s="3">
-        <v>71900</v>
+        <v>93200</v>
       </c>
       <c r="F46" s="3">
-        <v>55000</v>
+        <v>81700</v>
       </c>
       <c r="G46" s="3">
-        <v>56000</v>
+        <v>73100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>55900</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>56900</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F47" s="3">
         <v>2000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>800</v>
       </c>
       <c r="G47" s="3">
         <v>800</v>
       </c>
       <c r="H47" s="3">
+        <v>800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M47" s="3">
         <v>9100</v>
       </c>
-      <c r="I47" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>9000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>9100</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>8800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2182,14 +2398,14 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2199,38 +2415,44 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50900</v>
+        <v>51500</v>
       </c>
       <c r="E49" s="3">
-        <v>51100</v>
+        <v>51600</v>
       </c>
       <c r="F49" s="3">
-        <v>51200</v>
+        <v>51800</v>
       </c>
       <c r="G49" s="3">
+        <v>51900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>52100</v>
+      </c>
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,17 +2462,23 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,31 +2565,37 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="E52" s="3">
         <v>1100</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2364,16 +2604,22 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>134500</v>
+        <v>156800</v>
       </c>
       <c r="E54" s="3">
-        <v>125000</v>
+        <v>149700</v>
       </c>
       <c r="F54" s="3">
-        <v>108400</v>
+        <v>136800</v>
       </c>
       <c r="G54" s="3">
-        <v>57100</v>
+        <v>127100</v>
       </c>
       <c r="H54" s="3">
+        <v>110200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>58100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M54" s="3">
         <v>9100</v>
       </c>
-      <c r="I54" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>9000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>9100</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,28 +2748,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="E57" s="3">
-        <v>10300</v>
+        <v>7200</v>
       </c>
       <c r="F57" s="3">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="G57" s="3">
-        <v>5300</v>
+        <v>10500</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2520,40 +2782,46 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2562,39 +2830,45 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34800</v>
+        <v>25000</v>
       </c>
       <c r="E59" s="3">
-        <v>32400</v>
+        <v>29300</v>
       </c>
       <c r="F59" s="3">
-        <v>28600</v>
+        <v>35400</v>
       </c>
       <c r="G59" s="3">
-        <v>25200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>32900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>29000</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>25600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2605,34 +2879,40 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>41100</v>
+        <v>32300</v>
       </c>
       <c r="E60" s="3">
-        <v>42700</v>
+        <v>38300</v>
       </c>
       <c r="F60" s="3">
-        <v>32400</v>
+        <v>41800</v>
       </c>
       <c r="G60" s="3">
-        <v>30500</v>
+        <v>43400</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>32900</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -2644,16 +2924,22 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2670,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -2685,36 +2971,42 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11600</v>
+        <v>10500</v>
       </c>
       <c r="E62" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="F62" s="3">
-        <v>25100</v>
+        <v>11800</v>
       </c>
       <c r="G62" s="3">
-        <v>13100</v>
+        <v>11700</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>25500</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>13300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -2725,17 +3017,23 @@
       <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
+        <v>300</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,31 +3167,37 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52700</v>
+        <v>42800</v>
       </c>
       <c r="E66" s="3">
-        <v>54300</v>
+        <v>49400</v>
       </c>
       <c r="F66" s="3">
-        <v>57500</v>
+        <v>53600</v>
       </c>
       <c r="G66" s="3">
-        <v>43600</v>
+        <v>55200</v>
       </c>
       <c r="H66" s="3">
+        <v>58400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>44300</v>
+      </c>
+      <c r="J66" s="3">
         <v>600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -2893,13 +3209,19 @@
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,28 +3421,34 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>63400</v>
+        <v>90600</v>
       </c>
       <c r="E72" s="3">
-        <v>52500</v>
+        <v>78900</v>
       </c>
       <c r="F72" s="3">
-        <v>59300</v>
+        <v>64500</v>
       </c>
       <c r="G72" s="3">
-        <v>49900</v>
+        <v>53400</v>
       </c>
       <c r="H72" s="3">
-        <v>0</v>
+        <v>60300</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>50800</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -3112,16 +3460,22 @@
         <v>0</v>
       </c>
       <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>81800</v>
+        <v>113900</v>
       </c>
       <c r="E76" s="3">
-        <v>70800</v>
+        <v>100300</v>
       </c>
       <c r="F76" s="3">
-        <v>50900</v>
+        <v>83200</v>
       </c>
       <c r="G76" s="3">
-        <v>13500</v>
+        <v>71900</v>
       </c>
       <c r="H76" s="3">
+        <v>51700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K76" s="3">
         <v>8600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>8600</v>
       </c>
-      <c r="J76" s="3">
-        <v>8600</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8500</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,80 +3703,92 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="E81" s="3">
-        <v>-6800</v>
+        <v>14400</v>
       </c>
       <c r="F81" s="3">
-        <v>9400</v>
+        <v>11100</v>
       </c>
       <c r="G81" s="3">
-        <v>18700</v>
+        <v>-6900</v>
       </c>
       <c r="H81" s="3">
-        <v>5800</v>
+        <v>9600</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -3409,11 +3799,17 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,31 +3825,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3470,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +4103,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3689,20 +4123,20 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="G89" s="3">
+        <v>24300</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3713,11 +4147,17 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,31 +4173,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3774,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3870,35 +4330,41 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="G94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-9000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-8800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4564,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4092,58 +4584,64 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="G100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>9100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>8900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-600</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4160,8 +4658,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4174,14 +4678,14 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+      <c r="G102" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4190,15 +4694,21 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -741,25 +741,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>64600</v>
+        <v>65100</v>
       </c>
       <c r="E8" s="3">
-        <v>61600</v>
+        <v>62000</v>
       </c>
       <c r="F8" s="3">
-        <v>57100</v>
+        <v>57600</v>
       </c>
       <c r="G8" s="3">
-        <v>71100</v>
+        <v>71700</v>
       </c>
       <c r="H8" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="I8" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="J8" s="3">
-        <v>33900</v>
+        <v>34100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -788,25 +788,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>53300</v>
+        <v>53700</v>
       </c>
       <c r="E9" s="3">
-        <v>49000</v>
+        <v>49400</v>
       </c>
       <c r="F9" s="3">
-        <v>44600</v>
+        <v>44900</v>
       </c>
       <c r="G9" s="3">
-        <v>58600</v>
+        <v>59100</v>
       </c>
       <c r="H9" s="3">
-        <v>38300</v>
+        <v>38600</v>
       </c>
       <c r="I9" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="J9" s="3">
-        <v>25700</v>
+        <v>25900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -835,25 +835,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="E10" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="F10" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="G10" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="H10" s="3">
         <v>11300</v>
       </c>
       <c r="I10" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="J10" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E12" s="3">
         <v>2200</v>
@@ -916,7 +916,7 @@
         <v>1200</v>
       </c>
       <c r="I12" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J12" s="3">
         <v>1000</v>
@@ -1105,25 +1105,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58200</v>
+        <v>58700</v>
       </c>
       <c r="E17" s="3">
-        <v>54400</v>
+        <v>54800</v>
       </c>
       <c r="F17" s="3">
-        <v>47700</v>
+        <v>48100</v>
       </c>
       <c r="G17" s="3">
-        <v>62700</v>
+        <v>63200</v>
       </c>
       <c r="H17" s="3">
-        <v>41500</v>
+        <v>41800</v>
       </c>
       <c r="I17" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="J17" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1158,16 +1158,16 @@
         <v>7200</v>
       </c>
       <c r="F18" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G18" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="H18" s="3">
         <v>8100</v>
       </c>
       <c r="I18" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="J18" s="3">
         <v>6300</v>
@@ -1218,22 +1218,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F20" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G20" s="3">
-        <v>-15200</v>
+        <v>-15300</v>
       </c>
       <c r="H20" s="3">
         <v>1900</v>
       </c>
       <c r="I20" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1359,25 +1359,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="E23" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="F23" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="G23" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="H23" s="3">
         <v>10000</v>
       </c>
       <c r="I23" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="J23" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E26" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="F26" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="G26" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="H26" s="3">
         <v>9600</v>
       </c>
       <c r="I26" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="J26" s="3">
         <v>5900</v>
@@ -1547,22 +1547,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E27" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="F27" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="G27" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="H27" s="3">
         <v>9600</v>
       </c>
       <c r="I27" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="J27" s="3">
         <v>5900</v>
@@ -1782,22 +1782,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="F32" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G32" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="H32" s="3">
         <v>-1900</v>
       </c>
       <c r="I32" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -1829,22 +1829,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E33" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="F33" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="G33" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="H33" s="3">
         <v>9600</v>
       </c>
       <c r="I33" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="J33" s="3">
         <v>5900</v>
@@ -1923,22 +1923,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E35" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="F35" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="G35" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="H35" s="3">
         <v>9600</v>
       </c>
       <c r="I35" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="J35" s="3">
         <v>5900</v>
@@ -2060,22 +2060,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45700</v>
+        <v>46000</v>
       </c>
       <c r="E41" s="3">
-        <v>44900</v>
+        <v>45200</v>
       </c>
       <c r="F41" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="G41" s="3">
-        <v>35200</v>
+        <v>35500</v>
       </c>
       <c r="H41" s="3">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="I41" s="3">
-        <v>29900</v>
+        <v>30100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>6400</v>
       </c>
       <c r="F42" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -2154,22 +2154,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37800</v>
+        <v>38100</v>
       </c>
       <c r="E43" s="3">
-        <v>38100</v>
+        <v>38400</v>
       </c>
       <c r="F43" s="3">
-        <v>30600</v>
+        <v>30800</v>
       </c>
       <c r="G43" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="H43" s="3">
-        <v>27900</v>
+        <v>28100</v>
       </c>
       <c r="I43" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2260,10 +2260,10 @@
         <v>2200</v>
       </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I45" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2295,22 +2295,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>94000</v>
+        <v>94800</v>
       </c>
       <c r="E46" s="3">
-        <v>93200</v>
+        <v>93900</v>
       </c>
       <c r="F46" s="3">
-        <v>81700</v>
+        <v>82300</v>
       </c>
       <c r="G46" s="3">
-        <v>73100</v>
+        <v>73600</v>
       </c>
       <c r="H46" s="3">
-        <v>55900</v>
+        <v>56400</v>
       </c>
       <c r="I46" s="3">
-        <v>56900</v>
+        <v>57300</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="E47" s="3">
         <v>3600</v>
       </c>
       <c r="F47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G47" s="3">
         <v>800</v>
@@ -2360,7 +2360,7 @@
         <v>800</v>
       </c>
       <c r="J47" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="K47" s="3">
         <v>9000</v>
@@ -2436,19 +2436,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>51500</v>
+        <v>51900</v>
       </c>
       <c r="E49" s="3">
-        <v>51600</v>
+        <v>52000</v>
       </c>
       <c r="F49" s="3">
-        <v>51800</v>
+        <v>52200</v>
       </c>
       <c r="G49" s="3">
-        <v>51900</v>
+        <v>52300</v>
       </c>
       <c r="H49" s="3">
-        <v>52100</v>
+        <v>52500</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -2671,25 +2671,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>156800</v>
+        <v>158000</v>
       </c>
       <c r="E54" s="3">
-        <v>149700</v>
+        <v>150900</v>
       </c>
       <c r="F54" s="3">
-        <v>136800</v>
+        <v>137800</v>
       </c>
       <c r="G54" s="3">
-        <v>127100</v>
+        <v>128100</v>
       </c>
       <c r="H54" s="3">
-        <v>110200</v>
+        <v>111000</v>
       </c>
       <c r="I54" s="3">
-        <v>58100</v>
+        <v>58500</v>
       </c>
       <c r="J54" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="K54" s="3">
         <v>9000</v>
@@ -2756,7 +2756,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E57" s="3">
         <v>7200</v>
@@ -2765,7 +2765,7 @@
         <v>4500</v>
       </c>
       <c r="G57" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="H57" s="3">
         <v>3900</v>
@@ -2850,22 +2850,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="E59" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>35700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>33200</v>
+      </c>
+      <c r="H59" s="3">
         <v>29300</v>
       </c>
-      <c r="F59" s="3">
-        <v>35400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>32900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>29000</v>
-      </c>
       <c r="I59" s="3">
-        <v>25600</v>
+        <v>25800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2897,22 +2897,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="E60" s="3">
-        <v>38300</v>
+        <v>38600</v>
       </c>
       <c r="F60" s="3">
-        <v>41800</v>
+        <v>42100</v>
       </c>
       <c r="G60" s="3">
-        <v>43400</v>
+        <v>43800</v>
       </c>
       <c r="H60" s="3">
-        <v>32900</v>
+        <v>33200</v>
       </c>
       <c r="I60" s="3">
-        <v>31000</v>
+        <v>31300</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -2991,22 +2991,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="E62" s="3">
         <v>11100</v>
       </c>
       <c r="F62" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G62" s="3">
         <v>11800</v>
       </c>
-      <c r="G62" s="3">
-        <v>11700</v>
-      </c>
       <c r="H62" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="I62" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -3179,22 +3179,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42800</v>
+        <v>43100</v>
       </c>
       <c r="E66" s="3">
-        <v>49400</v>
+        <v>49800</v>
       </c>
       <c r="F66" s="3">
-        <v>53600</v>
+        <v>54000</v>
       </c>
       <c r="G66" s="3">
-        <v>55200</v>
+        <v>55600</v>
       </c>
       <c r="H66" s="3">
-        <v>58400</v>
+        <v>58900</v>
       </c>
       <c r="I66" s="3">
-        <v>44300</v>
+        <v>44600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -3433,22 +3433,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>90600</v>
+        <v>91300</v>
       </c>
       <c r="E72" s="3">
-        <v>78900</v>
+        <v>79500</v>
       </c>
       <c r="F72" s="3">
-        <v>64500</v>
+        <v>65000</v>
       </c>
       <c r="G72" s="3">
-        <v>53400</v>
+        <v>53800</v>
       </c>
       <c r="H72" s="3">
-        <v>60300</v>
+        <v>60800</v>
       </c>
       <c r="I72" s="3">
-        <v>50800</v>
+        <v>51100</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -3621,25 +3621,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>113900</v>
+        <v>114800</v>
       </c>
       <c r="E76" s="3">
-        <v>100300</v>
+        <v>101100</v>
       </c>
       <c r="F76" s="3">
-        <v>83200</v>
+        <v>83800</v>
       </c>
       <c r="G76" s="3">
-        <v>71900</v>
+        <v>72500</v>
       </c>
       <c r="H76" s="3">
-        <v>51700</v>
+        <v>52100</v>
       </c>
       <c r="I76" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="J76" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="K76" s="3">
         <v>8600</v>
@@ -3767,22 +3767,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E81" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="F81" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="G81" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="H81" s="3">
         <v>9600</v>
       </c>
       <c r="I81" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="J81" s="3">
         <v>5900</v>
@@ -4124,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -4331,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -4679,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -741,25 +741,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>65100</v>
+        <v>60800</v>
       </c>
       <c r="E8" s="3">
-        <v>62000</v>
+        <v>57900</v>
       </c>
       <c r="F8" s="3">
-        <v>57600</v>
+        <v>53800</v>
       </c>
       <c r="G8" s="3">
-        <v>71700</v>
+        <v>67000</v>
       </c>
       <c r="H8" s="3">
-        <v>49900</v>
+        <v>46600</v>
       </c>
       <c r="I8" s="3">
-        <v>37100</v>
+        <v>34700</v>
       </c>
       <c r="J8" s="3">
-        <v>34100</v>
+        <v>31900</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -788,25 +788,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>53700</v>
+        <v>50200</v>
       </c>
       <c r="E9" s="3">
-        <v>49400</v>
+        <v>46200</v>
       </c>
       <c r="F9" s="3">
-        <v>44900</v>
+        <v>42000</v>
       </c>
       <c r="G9" s="3">
-        <v>59100</v>
+        <v>55200</v>
       </c>
       <c r="H9" s="3">
-        <v>38600</v>
+        <v>36000</v>
       </c>
       <c r="I9" s="3">
-        <v>27800</v>
+        <v>26000</v>
       </c>
       <c r="J9" s="3">
-        <v>25900</v>
+        <v>24200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -835,25 +835,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="E10" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="F10" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="G10" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="H10" s="3">
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="I10" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="J10" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -901,25 +901,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F12" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G12" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H12" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1105,25 +1105,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58700</v>
+        <v>54800</v>
       </c>
       <c r="E17" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="F17" s="3">
-        <v>48100</v>
+        <v>44900</v>
       </c>
       <c r="G17" s="3">
-        <v>63200</v>
+        <v>59000</v>
       </c>
       <c r="H17" s="3">
-        <v>41800</v>
+        <v>39000</v>
       </c>
       <c r="I17" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="J17" s="3">
-        <v>27800</v>
+        <v>26000</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1152,25 +1152,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="E18" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="F18" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="G18" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="H18" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="I18" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="J18" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1218,22 +1218,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="E20" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="F20" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="G20" s="3">
-        <v>-15300</v>
+        <v>-14300</v>
       </c>
       <c r="H20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I20" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1359,25 +1359,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="E23" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="F23" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="G23" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="H23" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="I23" s="3">
-        <v>19500</v>
+        <v>18200</v>
       </c>
       <c r="J23" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1500,25 +1500,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="E26" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="F26" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="G26" s="3">
-        <v>-7000</v>
+        <v>-6500</v>
       </c>
       <c r="H26" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="I26" s="3">
-        <v>19200</v>
+        <v>17900</v>
       </c>
       <c r="J26" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1547,25 +1547,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="E27" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="F27" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="G27" s="3">
-        <v>-7000</v>
+        <v>-6500</v>
       </c>
       <c r="H27" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="I27" s="3">
-        <v>19200</v>
+        <v>17900</v>
       </c>
       <c r="J27" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1782,22 +1782,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-4900</v>
       </c>
       <c r="E32" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="F32" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="G32" s="3">
-        <v>15300</v>
+        <v>14300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I32" s="3">
-        <v>-11700</v>
+        <v>-10900</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -1829,25 +1829,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="E33" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="F33" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="G33" s="3">
-        <v>-7000</v>
+        <v>-6500</v>
       </c>
       <c r="H33" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="I33" s="3">
-        <v>19200</v>
+        <v>17900</v>
       </c>
       <c r="J33" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="E35" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="F35" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="G35" s="3">
-        <v>-7000</v>
+        <v>-6500</v>
       </c>
       <c r="H35" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="I35" s="3">
-        <v>19200</v>
+        <v>17900</v>
       </c>
       <c r="J35" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2060,22 +2060,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46000</v>
+        <v>43000</v>
       </c>
       <c r="E41" s="3">
-        <v>45200</v>
+        <v>42300</v>
       </c>
       <c r="F41" s="3">
-        <v>42300</v>
+        <v>39500</v>
       </c>
       <c r="G41" s="3">
-        <v>35500</v>
+        <v>33100</v>
       </c>
       <c r="H41" s="3">
-        <v>26300</v>
+        <v>24600</v>
       </c>
       <c r="I41" s="3">
-        <v>30100</v>
+        <v>28100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2107,13 +2107,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="E42" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="F42" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -2154,22 +2154,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38100</v>
+        <v>35600</v>
       </c>
       <c r="E43" s="3">
-        <v>38400</v>
+        <v>35800</v>
       </c>
       <c r="F43" s="3">
-        <v>30800</v>
+        <v>28800</v>
       </c>
       <c r="G43" s="3">
-        <v>36000</v>
+        <v>33600</v>
       </c>
       <c r="H43" s="3">
-        <v>28100</v>
+        <v>26200</v>
       </c>
       <c r="I43" s="3">
-        <v>18200</v>
+        <v>17000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2248,22 +2248,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="E45" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F45" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="G45" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="I45" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2295,22 +2295,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>94800</v>
+        <v>88500</v>
       </c>
       <c r="E46" s="3">
-        <v>93900</v>
+        <v>87700</v>
       </c>
       <c r="F46" s="3">
-        <v>82300</v>
+        <v>76900</v>
       </c>
       <c r="G46" s="3">
-        <v>73600</v>
+        <v>68800</v>
       </c>
       <c r="H46" s="3">
-        <v>56400</v>
+        <v>52700</v>
       </c>
       <c r="I46" s="3">
-        <v>57300</v>
+        <v>53500</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2342,25 +2342,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="E47" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F47" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J47" s="3">
-        <v>9400</v>
+        <v>8700</v>
       </c>
       <c r="K47" s="3">
         <v>9000</v>
@@ -2436,19 +2436,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>51900</v>
+        <v>48400</v>
       </c>
       <c r="E49" s="3">
-        <v>52000</v>
+        <v>48600</v>
       </c>
       <c r="F49" s="3">
-        <v>52200</v>
+        <v>48700</v>
       </c>
       <c r="G49" s="3">
-        <v>52300</v>
+        <v>48900</v>
       </c>
       <c r="H49" s="3">
-        <v>52500</v>
+        <v>49000</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -2577,19 +2577,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
       </c>
       <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -2671,25 +2671,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>158000</v>
+        <v>147500</v>
       </c>
       <c r="E54" s="3">
-        <v>150900</v>
+        <v>140900</v>
       </c>
       <c r="F54" s="3">
-        <v>137800</v>
+        <v>128700</v>
       </c>
       <c r="G54" s="3">
-        <v>128100</v>
+        <v>119600</v>
       </c>
       <c r="H54" s="3">
-        <v>111000</v>
+        <v>103700</v>
       </c>
       <c r="I54" s="3">
-        <v>58500</v>
+        <v>54600</v>
       </c>
       <c r="J54" s="3">
-        <v>9400</v>
+        <v>8800</v>
       </c>
       <c r="K54" s="3">
         <v>9000</v>
@@ -2756,22 +2756,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="E57" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="F57" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="G57" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="H57" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="I57" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
-        <v>1900</v>
-      </c>
       <c r="F58" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25100</v>
+        <v>23500</v>
       </c>
       <c r="E59" s="3">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="F59" s="3">
-        <v>35700</v>
+        <v>33300</v>
       </c>
       <c r="G59" s="3">
-        <v>33200</v>
+        <v>31000</v>
       </c>
       <c r="H59" s="3">
-        <v>29300</v>
+        <v>27300</v>
       </c>
       <c r="I59" s="3">
-        <v>25800</v>
+        <v>24100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2897,22 +2897,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32500</v>
+        <v>30400</v>
       </c>
       <c r="E60" s="3">
-        <v>38600</v>
+        <v>36100</v>
       </c>
       <c r="F60" s="3">
-        <v>42100</v>
+        <v>39300</v>
       </c>
       <c r="G60" s="3">
-        <v>43800</v>
+        <v>40900</v>
       </c>
       <c r="H60" s="3">
-        <v>33200</v>
+        <v>31000</v>
       </c>
       <c r="I60" s="3">
-        <v>31300</v>
+        <v>29200</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -2991,22 +2991,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="E62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F62" s="3">
         <v>11100</v>
       </c>
-      <c r="F62" s="3">
-        <v>11900</v>
-      </c>
       <c r="G62" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="H62" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="I62" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -3179,25 +3179,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43100</v>
+        <v>40300</v>
       </c>
       <c r="E66" s="3">
-        <v>49800</v>
+        <v>46500</v>
       </c>
       <c r="F66" s="3">
-        <v>54000</v>
+        <v>50400</v>
       </c>
       <c r="G66" s="3">
-        <v>55600</v>
+        <v>51900</v>
       </c>
       <c r="H66" s="3">
-        <v>58900</v>
+        <v>55000</v>
       </c>
       <c r="I66" s="3">
-        <v>44600</v>
+        <v>41700</v>
       </c>
       <c r="J66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -3433,22 +3433,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>91300</v>
+        <v>85200</v>
       </c>
       <c r="E72" s="3">
-        <v>79500</v>
+        <v>74300</v>
       </c>
       <c r="F72" s="3">
-        <v>65000</v>
+        <v>60700</v>
       </c>
       <c r="G72" s="3">
-        <v>53800</v>
+        <v>50200</v>
       </c>
       <c r="H72" s="3">
-        <v>60800</v>
+        <v>56800</v>
       </c>
       <c r="I72" s="3">
-        <v>51100</v>
+        <v>47800</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -3621,25 +3621,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>114800</v>
+        <v>107300</v>
       </c>
       <c r="E76" s="3">
-        <v>101100</v>
+        <v>94400</v>
       </c>
       <c r="F76" s="3">
-        <v>83800</v>
+        <v>78300</v>
       </c>
       <c r="G76" s="3">
-        <v>72500</v>
+        <v>67700</v>
       </c>
       <c r="H76" s="3">
-        <v>52100</v>
+        <v>48700</v>
       </c>
       <c r="I76" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="J76" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="K76" s="3">
         <v>8600</v>
@@ -3767,25 +3767,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="E81" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="F81" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="G81" s="3">
-        <v>-7000</v>
+        <v>-6500</v>
       </c>
       <c r="H81" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="I81" s="3">
-        <v>19200</v>
+        <v>17900</v>
       </c>
       <c r="J81" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -4124,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -4331,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-6500</v>
+        <v>-6000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -4585,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -4679,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>SJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>60800</v>
+        <v>67700</v>
       </c>
       <c r="E8" s="3">
-        <v>57900</v>
+        <v>72800</v>
       </c>
       <c r="F8" s="3">
-        <v>53800</v>
+        <v>60300</v>
       </c>
       <c r="G8" s="3">
-        <v>67000</v>
+        <v>57400</v>
       </c>
       <c r="H8" s="3">
-        <v>46600</v>
+        <v>53300</v>
       </c>
       <c r="I8" s="3">
+        <v>66400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K8" s="3">
         <v>34700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>31900</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>50200</v>
+        <v>51000</v>
       </c>
       <c r="E9" s="3">
-        <v>46200</v>
+        <v>62200</v>
       </c>
       <c r="F9" s="3">
-        <v>42000</v>
+        <v>49700</v>
       </c>
       <c r="G9" s="3">
-        <v>55200</v>
+        <v>45800</v>
       </c>
       <c r="H9" s="3">
-        <v>36000</v>
+        <v>41600</v>
       </c>
       <c r="I9" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K9" s="3">
         <v>26000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>24200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -829,38 +842,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10700</v>
+        <v>16700</v>
       </c>
       <c r="E10" s="3">
-        <v>11800</v>
+        <v>10500</v>
       </c>
       <c r="F10" s="3">
-        <v>11800</v>
+        <v>10600</v>
       </c>
       <c r="G10" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="H10" s="3">
-        <v>10600</v>
+        <v>11700</v>
       </c>
       <c r="I10" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K10" s="3">
         <v>8700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,38 +920,40 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,37 +1150,39 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54800</v>
+        <v>56300</v>
       </c>
       <c r="E17" s="3">
-        <v>51200</v>
+        <v>70000</v>
       </c>
       <c r="F17" s="3">
-        <v>44900</v>
+        <v>54300</v>
       </c>
       <c r="G17" s="3">
-        <v>59000</v>
+        <v>50700</v>
       </c>
       <c r="H17" s="3">
-        <v>39000</v>
+        <v>44500</v>
       </c>
       <c r="I17" s="3">
+        <v>58500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K17" s="3">
         <v>27400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1143,58 +1196,70 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6700</v>
       </c>
-      <c r="F18" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I18" s="3">
         <v>7900</v>
       </c>
-      <c r="H18" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K18" s="3">
         <v>7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1277,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F20" s="3">
         <v>4900</v>
       </c>
-      <c r="E20" s="3">
-        <v>7300</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>10900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1273,14 +1346,14 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>-6100</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>-6000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1306,25 +1379,31 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1338,11 +1417,11 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1353,38 +1432,44 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="E23" s="3">
-        <v>14000</v>
+        <v>-9900</v>
       </c>
       <c r="F23" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="G23" s="3">
-        <v>-6400</v>
+        <v>13900</v>
       </c>
       <c r="H23" s="3">
-        <v>9400</v>
+        <v>10900</v>
       </c>
       <c r="I23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K23" s="3">
         <v>18200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5800</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1392,63 +1477,75 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,38 +1591,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11000</v>
+        <v>12200</v>
       </c>
       <c r="E26" s="3">
-        <v>13600</v>
+        <v>-9900</v>
       </c>
       <c r="F26" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="G26" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-6500</v>
       </c>
-      <c r="H26" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K26" s="3">
         <v>17900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>5500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1533,48 +1636,54 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11000</v>
+        <v>12200</v>
       </c>
       <c r="E27" s="3">
-        <v>13600</v>
+        <v>-9900</v>
       </c>
       <c r="F27" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="G27" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-6500</v>
       </c>
-      <c r="H27" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K27" s="3">
         <v>17900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>5500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1585,11 +1694,17 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,87 +1909,99 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-10900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11000</v>
+        <v>12200</v>
       </c>
       <c r="E33" s="3">
-        <v>13600</v>
+        <v>-9900</v>
       </c>
       <c r="F33" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="G33" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-6500</v>
       </c>
-      <c r="H33" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K33" s="3">
         <v>17900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>5500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -1867,11 +2012,17 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,40 +2068,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11000</v>
+        <v>12200</v>
       </c>
       <c r="E35" s="3">
-        <v>13600</v>
+        <v>-9900</v>
       </c>
       <c r="F35" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="G35" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-6500</v>
       </c>
-      <c r="H35" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K35" s="3">
         <v>17900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>5500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -1961,63 +2118,75 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,35 +2225,37 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="E41" s="3">
-        <v>42300</v>
+        <v>35200</v>
       </c>
       <c r="F41" s="3">
-        <v>39500</v>
+        <v>42600</v>
       </c>
       <c r="G41" s="3">
-        <v>33100</v>
+        <v>41900</v>
       </c>
       <c r="H41" s="3">
-        <v>24600</v>
+        <v>39100</v>
       </c>
       <c r="I41" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K41" s="3">
         <v>28100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2090,36 +2263,42 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="E42" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="F42" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -2133,11 +2312,11 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2148,35 +2327,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>35600</v>
+        <v>32800</v>
       </c>
       <c r="E43" s="3">
-        <v>35800</v>
+        <v>30300</v>
       </c>
       <c r="F43" s="3">
-        <v>28800</v>
+        <v>35300</v>
       </c>
       <c r="G43" s="3">
-        <v>33600</v>
+        <v>35500</v>
       </c>
       <c r="H43" s="3">
-        <v>26200</v>
+        <v>28600</v>
       </c>
       <c r="I43" s="3">
+        <v>33300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K43" s="3">
         <v>17000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,17 +2371,23 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,35 +2433,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
-        <v>3700</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8400</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2280,116 +2477,134 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>88500</v>
+        <v>80100</v>
       </c>
       <c r="E46" s="3">
+        <v>95300</v>
+      </c>
+      <c r="F46" s="3">
         <v>87700</v>
       </c>
-      <c r="F46" s="3">
-        <v>76900</v>
-      </c>
       <c r="G46" s="3">
-        <v>68800</v>
+        <v>86900</v>
       </c>
       <c r="H46" s="3">
-        <v>52700</v>
+        <v>76200</v>
       </c>
       <c r="I46" s="3">
+        <v>68200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K46" s="3">
         <v>53500</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7800</v>
+        <v>25800</v>
       </c>
       <c r="E47" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G47" s="3">
         <v>3400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>700</v>
       </c>
       <c r="I47" s="3">
         <v>700</v>
       </c>
       <c r="J47" s="3">
+        <v>700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>700</v>
+      </c>
+      <c r="L47" s="3">
         <v>8700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>9000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>9100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>8800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2404,14 +2619,14 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2421,44 +2636,50 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>47900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>48000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>48200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>48300</v>
+      </c>
+      <c r="I49" s="3">
         <v>48400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="J49" s="3">
         <v>48600</v>
       </c>
-      <c r="F49" s="3">
-        <v>48700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>48900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>49000</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,17 +2689,23 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,37 +2804,43 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
         <v>2500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1000</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2610,16 +2849,22 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>147500</v>
+        <v>195900</v>
       </c>
       <c r="E54" s="3">
-        <v>140900</v>
+        <v>159100</v>
       </c>
       <c r="F54" s="3">
-        <v>128700</v>
+        <v>146200</v>
       </c>
       <c r="G54" s="3">
-        <v>119600</v>
+        <v>139700</v>
       </c>
       <c r="H54" s="3">
-        <v>103700</v>
+        <v>127600</v>
       </c>
       <c r="I54" s="3">
+        <v>118600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>102800</v>
+      </c>
+      <c r="K54" s="3">
         <v>54600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,35 +3009,37 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
-        <v>9900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3700</v>
-      </c>
       <c r="I57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2788,46 +3049,52 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2836,45 +3103,51 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="E59" s="3">
-        <v>27500</v>
+        <v>19800</v>
       </c>
       <c r="F59" s="3">
-        <v>33300</v>
+        <v>23300</v>
       </c>
       <c r="G59" s="3">
-        <v>31000</v>
+        <v>27300</v>
       </c>
       <c r="H59" s="3">
-        <v>27300</v>
+        <v>33000</v>
       </c>
       <c r="I59" s="3">
+        <v>30700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K59" s="3">
         <v>24100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2885,41 +3158,47 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30400</v>
+        <v>32000</v>
       </c>
       <c r="E60" s="3">
-        <v>36100</v>
+        <v>32300</v>
       </c>
       <c r="F60" s="3">
-        <v>39300</v>
+        <v>30100</v>
       </c>
       <c r="G60" s="3">
-        <v>40900</v>
+        <v>35800</v>
       </c>
       <c r="H60" s="3">
-        <v>31000</v>
+        <v>39000</v>
       </c>
       <c r="I60" s="3">
+        <v>40500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K60" s="3">
         <v>29200</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -2930,16 +3209,22 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2962,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -2977,42 +3262,48 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9900</v>
+        <v>11400</v>
       </c>
       <c r="E62" s="3">
-        <v>10400</v>
+        <v>8600</v>
       </c>
       <c r="F62" s="3">
-        <v>11100</v>
+        <v>9800</v>
       </c>
       <c r="G62" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H62" s="3">
         <v>11000</v>
       </c>
-      <c r="H62" s="3">
-        <v>24000</v>
-      </c>
       <c r="I62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K62" s="3">
         <v>12500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
@@ -3023,17 +3314,23 @@
       <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
+        <v>300</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,37 +3482,43 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40300</v>
+        <v>43400</v>
       </c>
       <c r="E66" s="3">
-        <v>46500</v>
+        <v>40900</v>
       </c>
       <c r="F66" s="3">
-        <v>50400</v>
+        <v>39900</v>
       </c>
       <c r="G66" s="3">
-        <v>51900</v>
+        <v>46100</v>
       </c>
       <c r="H66" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="I66" s="3">
+        <v>51400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K66" s="3">
         <v>41700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
@@ -3215,13 +3530,19 @@
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3768,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>85200</v>
+        <v>86800</v>
       </c>
       <c r="E72" s="3">
-        <v>74300</v>
+        <v>74600</v>
       </c>
       <c r="F72" s="3">
-        <v>60700</v>
+        <v>84500</v>
       </c>
       <c r="G72" s="3">
-        <v>50200</v>
+        <v>73600</v>
       </c>
       <c r="H72" s="3">
-        <v>56800</v>
+        <v>60200</v>
       </c>
       <c r="I72" s="3">
+        <v>49800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K72" s="3">
         <v>47800</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
@@ -3466,16 +3813,22 @@
         <v>0</v>
       </c>
       <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>107300</v>
+        <v>152500</v>
       </c>
       <c r="E76" s="3">
-        <v>94400</v>
+        <v>118200</v>
       </c>
       <c r="F76" s="3">
-        <v>78300</v>
+        <v>106300</v>
       </c>
       <c r="G76" s="3">
-        <v>67700</v>
+        <v>93600</v>
       </c>
       <c r="H76" s="3">
-        <v>48700</v>
+        <v>77600</v>
       </c>
       <c r="I76" s="3">
+        <v>67100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K76" s="3">
         <v>13000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8500</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,92 +4086,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11000</v>
+        <v>12200</v>
       </c>
       <c r="E81" s="3">
-        <v>13600</v>
+        <v>-9900</v>
       </c>
       <c r="F81" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="G81" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-6500</v>
       </c>
-      <c r="H81" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K81" s="3">
         <v>17900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>5500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -3805,11 +4194,17 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3841,23 +4238,23 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4123,26 +4556,26 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
-        <v>22900</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="I89" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4153,11 +4586,17 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4189,23 +4630,23 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4330,41 +4789,47 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>-6000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-9000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-8800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4584,41 +5075,47 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>-3400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>9100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>8900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4631,23 +5128,23 @@
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
-        <v>-600</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>-500</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4678,20 +5181,20 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
-        <v>12900</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="I102" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4700,15 +5203,21 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>SJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>67700</v>
+        <v>70500</v>
       </c>
       <c r="E8" s="3">
-        <v>72800</v>
+        <v>64500</v>
       </c>
       <c r="F8" s="3">
-        <v>60300</v>
+        <v>69300</v>
       </c>
       <c r="G8" s="3">
-        <v>57400</v>
+        <v>57500</v>
       </c>
       <c r="H8" s="3">
-        <v>53300</v>
+        <v>54700</v>
       </c>
       <c r="I8" s="3">
-        <v>66400</v>
+        <v>50800</v>
       </c>
       <c r="J8" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K8" s="3">
         <v>46200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31900</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,8 +790,8 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -795,41 +799,44 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>51000</v>
+        <v>57500</v>
       </c>
       <c r="E9" s="3">
-        <v>62200</v>
+        <v>48600</v>
       </c>
       <c r="F9" s="3">
-        <v>49700</v>
+        <v>59300</v>
       </c>
       <c r="G9" s="3">
-        <v>45800</v>
+        <v>47400</v>
       </c>
       <c r="H9" s="3">
-        <v>41600</v>
+        <v>43600</v>
       </c>
       <c r="I9" s="3">
-        <v>54700</v>
+        <v>39700</v>
       </c>
       <c r="J9" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K9" s="3">
         <v>35700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,41 +855,44 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>16700</v>
+        <v>13000</v>
       </c>
       <c r="E10" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K10" s="3">
         <v>10500</v>
       </c>
-      <c r="F10" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>11700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>11700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>10500</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7600</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,32 +945,32 @@
         <v>2500</v>
       </c>
       <c r="E12" s="3">
-        <v>4400</v>
+        <v>2300</v>
       </c>
       <c r="F12" s="3">
-        <v>2400</v>
+        <v>4200</v>
       </c>
       <c r="G12" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="H12" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="I12" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="J12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,94 +1178,98 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>56300</v>
+        <v>62800</v>
       </c>
       <c r="E17" s="3">
-        <v>70000</v>
+        <v>53600</v>
       </c>
       <c r="F17" s="3">
-        <v>54300</v>
+        <v>66700</v>
       </c>
       <c r="G17" s="3">
-        <v>50700</v>
+        <v>51800</v>
       </c>
       <c r="H17" s="3">
-        <v>44500</v>
+        <v>48400</v>
       </c>
       <c r="I17" s="3">
-        <v>58500</v>
+        <v>42400</v>
       </c>
       <c r="J17" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K17" s="3">
         <v>38700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11400</v>
+        <v>7700</v>
       </c>
       <c r="E18" s="3">
-        <v>2800</v>
+        <v>10900</v>
       </c>
       <c r="F18" s="3">
-        <v>6000</v>
+        <v>2700</v>
       </c>
       <c r="G18" s="3">
-        <v>6700</v>
+        <v>5700</v>
       </c>
       <c r="H18" s="3">
-        <v>8800</v>
+        <v>6400</v>
       </c>
       <c r="I18" s="3">
-        <v>7900</v>
+        <v>8400</v>
       </c>
       <c r="J18" s="3">
         <v>7500</v>
       </c>
       <c r="K18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L18" s="3">
         <v>7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1249,17 +1279,20 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,32 +1322,32 @@
         <v>1500</v>
       </c>
       <c r="E20" s="3">
-        <v>-12700</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="3">
-        <v>4900</v>
+        <v>-12100</v>
       </c>
       <c r="G20" s="3">
-        <v>7200</v>
+        <v>4700</v>
       </c>
       <c r="H20" s="3">
-        <v>2100</v>
+        <v>6900</v>
       </c>
       <c r="I20" s="3">
-        <v>-14200</v>
+        <v>2000</v>
       </c>
       <c r="J20" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,17 +1357,20 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,11 +1389,11 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-5700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1385,28 +1422,31 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1423,8 +1463,8 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1438,41 +1478,44 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13000</v>
+        <v>9300</v>
       </c>
       <c r="E23" s="3">
-        <v>-9900</v>
+        <v>12400</v>
       </c>
       <c r="F23" s="3">
-        <v>10900</v>
+        <v>-9500</v>
       </c>
       <c r="G23" s="3">
-        <v>13900</v>
+        <v>10400</v>
       </c>
       <c r="H23" s="3">
-        <v>10900</v>
+        <v>13200</v>
       </c>
       <c r="I23" s="3">
-        <v>-6300</v>
+        <v>10300</v>
       </c>
       <c r="J23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K23" s="3">
         <v>9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1483,48 +1526,51 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>300</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1535,8 +1581,8 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,41 +1646,44 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12200</v>
+        <v>9400</v>
       </c>
       <c r="E26" s="3">
-        <v>-9900</v>
+        <v>11600</v>
       </c>
       <c r="F26" s="3">
-        <v>10900</v>
+        <v>-9400</v>
       </c>
       <c r="G26" s="3">
-        <v>13400</v>
+        <v>10400</v>
       </c>
       <c r="H26" s="3">
-        <v>10400</v>
+        <v>12800</v>
       </c>
       <c r="I26" s="3">
-        <v>-6500</v>
+        <v>9900</v>
       </c>
       <c r="J26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K26" s="3">
         <v>8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1642,69 +1694,75 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12200</v>
+        <v>9400</v>
       </c>
       <c r="E27" s="3">
-        <v>-9900</v>
+        <v>11600</v>
       </c>
       <c r="F27" s="3">
-        <v>10900</v>
+        <v>-9400</v>
       </c>
       <c r="G27" s="3">
-        <v>13400</v>
+        <v>10400</v>
       </c>
       <c r="H27" s="3">
-        <v>10400</v>
+        <v>12800</v>
       </c>
       <c r="I27" s="3">
-        <v>-6500</v>
+        <v>9900</v>
       </c>
       <c r="J27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K27" s="3">
         <v>8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,32 +1994,32 @@
         <v>-1500</v>
       </c>
       <c r="E32" s="3">
-        <v>12700</v>
+        <v>-1500</v>
       </c>
       <c r="F32" s="3">
-        <v>-4900</v>
+        <v>12100</v>
       </c>
       <c r="G32" s="3">
-        <v>-7200</v>
+        <v>-4700</v>
       </c>
       <c r="H32" s="3">
-        <v>-2100</v>
+        <v>-6900</v>
       </c>
       <c r="I32" s="3">
-        <v>14200</v>
+        <v>-2000</v>
       </c>
       <c r="J32" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,70 +2029,76 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12200</v>
+        <v>9400</v>
       </c>
       <c r="E33" s="3">
-        <v>-9900</v>
+        <v>11600</v>
       </c>
       <c r="F33" s="3">
-        <v>10900</v>
+        <v>-9400</v>
       </c>
       <c r="G33" s="3">
-        <v>13400</v>
+        <v>10400</v>
       </c>
       <c r="H33" s="3">
-        <v>10400</v>
+        <v>12800</v>
       </c>
       <c r="I33" s="3">
-        <v>-6500</v>
+        <v>9900</v>
       </c>
       <c r="J33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K33" s="3">
         <v>8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12200</v>
+        <v>9400</v>
       </c>
       <c r="E35" s="3">
-        <v>-9900</v>
+        <v>11600</v>
       </c>
       <c r="F35" s="3">
-        <v>10900</v>
+        <v>-9400</v>
       </c>
       <c r="G35" s="3">
-        <v>13400</v>
+        <v>10400</v>
       </c>
       <c r="H35" s="3">
-        <v>10400</v>
+        <v>12800</v>
       </c>
       <c r="I35" s="3">
-        <v>-6500</v>
+        <v>9900</v>
       </c>
       <c r="J35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K35" s="3">
         <v>8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,38 +2313,39 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30000</v>
+        <v>24400</v>
       </c>
       <c r="E41" s="3">
-        <v>35200</v>
+        <v>28600</v>
       </c>
       <c r="F41" s="3">
-        <v>42600</v>
+        <v>33500</v>
       </c>
       <c r="G41" s="3">
-        <v>41900</v>
+        <v>40600</v>
       </c>
       <c r="H41" s="3">
-        <v>39100</v>
+        <v>39900</v>
       </c>
       <c r="I41" s="3">
-        <v>32800</v>
+        <v>37300</v>
       </c>
       <c r="J41" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K41" s="3">
         <v>24400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2269,39 +2356,42 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G42" s="3">
         <v>5700</v>
       </c>
-      <c r="E42" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5900</v>
-      </c>
       <c r="H42" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>5600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -2318,8 +2408,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2333,38 +2423,41 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32800</v>
+        <v>52800</v>
       </c>
       <c r="E43" s="3">
-        <v>30300</v>
+        <v>31200</v>
       </c>
       <c r="F43" s="3">
-        <v>35300</v>
+        <v>28900</v>
       </c>
       <c r="G43" s="3">
-        <v>35500</v>
+        <v>33600</v>
       </c>
       <c r="H43" s="3">
-        <v>28600</v>
+        <v>33800</v>
       </c>
       <c r="I43" s="3">
-        <v>33300</v>
+        <v>27200</v>
       </c>
       <c r="J43" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K43" s="3">
         <v>26000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2377,8 +2470,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,38 +2535,41 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="E45" s="3">
-        <v>24200</v>
+        <v>11100</v>
       </c>
       <c r="F45" s="3">
-        <v>3900</v>
+        <v>23000</v>
       </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H45" s="3">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="I45" s="3">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8400</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2483,8 +2582,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2492,38 +2591,41 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>80100</v>
+        <v>94500</v>
       </c>
       <c r="E46" s="3">
-        <v>95300</v>
+        <v>76300</v>
       </c>
       <c r="F46" s="3">
-        <v>87700</v>
+        <v>90800</v>
       </c>
       <c r="G46" s="3">
-        <v>86900</v>
+        <v>83600</v>
       </c>
       <c r="H46" s="3">
-        <v>76200</v>
+        <v>82900</v>
       </c>
       <c r="I46" s="3">
-        <v>68200</v>
+        <v>72700</v>
       </c>
       <c r="J46" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K46" s="3">
         <v>52200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53500</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2531,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -2540,33 +2642,36 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25800</v>
+        <v>24700</v>
       </c>
       <c r="E47" s="3">
-        <v>14900</v>
+        <v>24600</v>
       </c>
       <c r="F47" s="3">
-        <v>7700</v>
+        <v>14200</v>
       </c>
       <c r="G47" s="3">
-        <v>3400</v>
+        <v>7400</v>
       </c>
       <c r="H47" s="3">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="I47" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="J47" s="3">
         <v>700</v>
@@ -2575,39 +2680,42 @@
         <v>700</v>
       </c>
       <c r="L47" s="3">
+        <v>700</v>
+      </c>
+      <c r="M47" s="3">
         <v>8700</v>
-      </c>
-      <c r="M47" s="3">
-        <v>9000</v>
       </c>
       <c r="N47" s="3">
         <v>9000</v>
       </c>
       <c r="O47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P47" s="3">
         <v>9100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2625,11 +2733,11 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2642,8 +2750,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2651,38 +2759,41 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>87200</v>
+        <v>82900</v>
       </c>
       <c r="E49" s="3">
-        <v>47900</v>
+        <v>83100</v>
       </c>
       <c r="F49" s="3">
-        <v>48000</v>
+        <v>45600</v>
       </c>
       <c r="G49" s="3">
-        <v>48200</v>
+        <v>45800</v>
       </c>
       <c r="H49" s="3">
-        <v>48300</v>
+        <v>45900</v>
       </c>
       <c r="I49" s="3">
-        <v>48400</v>
+        <v>46000</v>
       </c>
       <c r="J49" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K49" s="3">
         <v>48600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,8 +2806,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,31 +2939,31 @@
         <v>800</v>
       </c>
       <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
-        <v>2500</v>
-      </c>
       <c r="G52" s="3">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
       <c r="I52" s="3">
+        <v>900</v>
+      </c>
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2855,16 +2975,19 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>195900</v>
+        <v>204700</v>
       </c>
       <c r="E54" s="3">
-        <v>159100</v>
+        <v>186800</v>
       </c>
       <c r="F54" s="3">
-        <v>146200</v>
+        <v>151600</v>
       </c>
       <c r="G54" s="3">
-        <v>139700</v>
+        <v>139400</v>
       </c>
       <c r="H54" s="3">
-        <v>127600</v>
+        <v>133100</v>
       </c>
       <c r="I54" s="3">
-        <v>118600</v>
+        <v>121600</v>
       </c>
       <c r="J54" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K54" s="3">
         <v>102800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>9000</v>
       </c>
       <c r="N54" s="3">
         <v>9000</v>
       </c>
       <c r="O54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P54" s="3">
         <v>9100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,38 +3141,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900</v>
+        <v>15300</v>
       </c>
       <c r="E57" s="3">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="F57" s="3">
-        <v>5200</v>
+        <v>11900</v>
       </c>
       <c r="G57" s="3">
-        <v>6700</v>
+        <v>4900</v>
       </c>
       <c r="H57" s="3">
-        <v>4200</v>
+        <v>6400</v>
       </c>
       <c r="I57" s="3">
-        <v>9800</v>
+        <v>4000</v>
       </c>
       <c r="J57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3055,8 +3186,8 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,17 +3209,17 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1800</v>
-      </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3093,11 +3227,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3109,48 +3243,51 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="E59" s="3">
-        <v>19800</v>
+        <v>22000</v>
       </c>
       <c r="F59" s="3">
-        <v>23300</v>
+        <v>18800</v>
       </c>
       <c r="G59" s="3">
-        <v>27300</v>
+        <v>22200</v>
       </c>
       <c r="H59" s="3">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="I59" s="3">
-        <v>30700</v>
+        <v>31500</v>
       </c>
       <c r="J59" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K59" s="3">
         <v>27100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3164,44 +3301,47 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32000</v>
+        <v>38900</v>
       </c>
       <c r="E60" s="3">
-        <v>32300</v>
+        <v>30500</v>
       </c>
       <c r="F60" s="3">
-        <v>30100</v>
+        <v>30800</v>
       </c>
       <c r="G60" s="3">
-        <v>35800</v>
+        <v>28700</v>
       </c>
       <c r="H60" s="3">
-        <v>39000</v>
+        <v>34100</v>
       </c>
       <c r="I60" s="3">
-        <v>40500</v>
+        <v>37200</v>
       </c>
       <c r="J60" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K60" s="3">
         <v>30700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29200</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -3215,16 +3355,19 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3253,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3268,7 +3411,7 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3276,37 +3419,40 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11400</v>
+        <v>10400</v>
       </c>
       <c r="E62" s="3">
-        <v>8600</v>
+        <v>10800</v>
       </c>
       <c r="F62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H62" s="3">
         <v>9800</v>
       </c>
-      <c r="G62" s="3">
-        <v>10300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>11000</v>
-      </c>
       <c r="I62" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="J62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K62" s="3">
         <v>23800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -3320,8 +3466,8 @@
       <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>300</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,40 +3643,43 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43400</v>
+        <v>49300</v>
       </c>
       <c r="E66" s="3">
-        <v>40900</v>
+        <v>41400</v>
       </c>
       <c r="F66" s="3">
-        <v>39900</v>
+        <v>39000</v>
       </c>
       <c r="G66" s="3">
-        <v>46100</v>
+        <v>38100</v>
       </c>
       <c r="H66" s="3">
-        <v>50000</v>
+        <v>43900</v>
       </c>
       <c r="I66" s="3">
-        <v>51400</v>
+        <v>47600</v>
       </c>
       <c r="J66" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K66" s="3">
         <v>54500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
@@ -3536,13 +3694,16 @@
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,38 +3945,41 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>86800</v>
+        <v>92100</v>
       </c>
       <c r="E72" s="3">
-        <v>74600</v>
+        <v>82700</v>
       </c>
       <c r="F72" s="3">
-        <v>84500</v>
+        <v>71100</v>
       </c>
       <c r="G72" s="3">
-        <v>73600</v>
+        <v>80500</v>
       </c>
       <c r="H72" s="3">
-        <v>60200</v>
+        <v>70200</v>
       </c>
       <c r="I72" s="3">
-        <v>49800</v>
+        <v>57300</v>
       </c>
       <c r="J72" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K72" s="3">
         <v>56300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47800</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
@@ -3819,16 +3993,19 @@
         <v>0</v>
       </c>
       <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>152500</v>
+        <v>155400</v>
       </c>
       <c r="E76" s="3">
-        <v>118200</v>
+        <v>145400</v>
       </c>
       <c r="F76" s="3">
-        <v>106300</v>
+        <v>112700</v>
       </c>
       <c r="G76" s="3">
-        <v>93600</v>
+        <v>101300</v>
       </c>
       <c r="H76" s="3">
-        <v>77600</v>
+        <v>89200</v>
       </c>
       <c r="I76" s="3">
-        <v>67100</v>
+        <v>74000</v>
       </c>
       <c r="J76" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K76" s="3">
         <v>48200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>8600</v>
       </c>
       <c r="N76" s="3">
         <v>8600</v>
       </c>
       <c r="O76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="P76" s="3">
         <v>8700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8500</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
         <v>0</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12200</v>
+        <v>9400</v>
       </c>
       <c r="E81" s="3">
-        <v>-9900</v>
+        <v>11600</v>
       </c>
       <c r="F81" s="3">
-        <v>10900</v>
+        <v>-9400</v>
       </c>
       <c r="G81" s="3">
-        <v>13400</v>
+        <v>10400</v>
       </c>
       <c r="H81" s="3">
-        <v>10400</v>
+        <v>12800</v>
       </c>
       <c r="I81" s="3">
-        <v>-6500</v>
+        <v>9900</v>
       </c>
       <c r="J81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K81" s="3">
         <v>8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,31 +4422,32 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -4256,8 +4455,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,37 +4756,40 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>22700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4581,22 +4798,25 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,31 +4836,32 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4648,8 +4869,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-9000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,84 +5304,90 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>9100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8900</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -5146,8 +5395,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5167,37 +5416,40 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>12800</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5209,15 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>SJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>70500</v>
+        <v>64500</v>
       </c>
       <c r="E8" s="3">
-        <v>64500</v>
+        <v>72700</v>
       </c>
       <c r="F8" s="3">
-        <v>69300</v>
+        <v>66600</v>
       </c>
       <c r="G8" s="3">
-        <v>57500</v>
+        <v>71600</v>
       </c>
       <c r="H8" s="3">
-        <v>54700</v>
+        <v>59300</v>
       </c>
       <c r="I8" s="3">
-        <v>50800</v>
+        <v>56500</v>
       </c>
       <c r="J8" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K8" s="3">
         <v>63300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31900</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,8 +797,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -802,44 +806,47 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>57500</v>
+        <v>54400</v>
       </c>
       <c r="E9" s="3">
-        <v>48600</v>
+        <v>59400</v>
       </c>
       <c r="F9" s="3">
-        <v>59300</v>
+        <v>50100</v>
       </c>
       <c r="G9" s="3">
-        <v>47400</v>
+        <v>61200</v>
       </c>
       <c r="H9" s="3">
-        <v>43600</v>
+        <v>48900</v>
       </c>
       <c r="I9" s="3">
-        <v>39700</v>
+        <v>45000</v>
       </c>
       <c r="J9" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K9" s="3">
         <v>52100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,44 +865,47 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13000</v>
+        <v>10100</v>
       </c>
       <c r="E10" s="3">
-        <v>15900</v>
+        <v>13400</v>
       </c>
       <c r="F10" s="3">
-        <v>10000</v>
+        <v>16400</v>
       </c>
       <c r="G10" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="H10" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K10" s="3">
         <v>11100</v>
       </c>
-      <c r="I10" s="3">
-        <v>11200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>11100</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,44 +949,45 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1900</v>
-      </c>
       <c r="I12" s="3">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="J12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,100 +1205,104 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62800</v>
+        <v>59500</v>
       </c>
       <c r="E17" s="3">
-        <v>53600</v>
+        <v>64800</v>
       </c>
       <c r="F17" s="3">
-        <v>66700</v>
+        <v>55300</v>
       </c>
       <c r="G17" s="3">
-        <v>51800</v>
+        <v>68800</v>
       </c>
       <c r="H17" s="3">
-        <v>48400</v>
+        <v>53400</v>
       </c>
       <c r="I17" s="3">
-        <v>42400</v>
+        <v>49900</v>
       </c>
       <c r="J17" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K17" s="3">
         <v>55800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7700</v>
+        <v>5100</v>
       </c>
       <c r="E18" s="3">
-        <v>10900</v>
+        <v>8000</v>
       </c>
       <c r="F18" s="3">
-        <v>2700</v>
+        <v>11200</v>
       </c>
       <c r="G18" s="3">
-        <v>5700</v>
+        <v>2800</v>
       </c>
       <c r="H18" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="I18" s="3">
-        <v>8400</v>
+        <v>6600</v>
       </c>
       <c r="J18" s="3">
-        <v>7500</v>
+        <v>8600</v>
       </c>
       <c r="K18" s="3">
         <v>7500</v>
       </c>
       <c r="L18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M18" s="3">
         <v>7300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1282,17 +1312,20 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,44 +1346,45 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-12100</v>
-      </c>
       <c r="G20" s="3">
-        <v>4700</v>
+        <v>-12500</v>
       </c>
       <c r="H20" s="3">
-        <v>6900</v>
+        <v>4800</v>
       </c>
       <c r="I20" s="3">
-        <v>2000</v>
+        <v>7100</v>
       </c>
       <c r="J20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-13500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1360,25 +1394,28 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>10100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1392,12 +1429,12 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,20 +1476,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1466,8 +1506,8 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1481,44 +1521,47 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="L23" s="3">
         <v>9300</v>
       </c>
-      <c r="E23" s="3">
-        <v>12400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>13200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>9300</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5800</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1529,51 +1572,54 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>300</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1584,8 +1630,8 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,44 +1698,47 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9400</v>
+        <v>5900</v>
       </c>
       <c r="E26" s="3">
-        <v>11600</v>
+        <v>9700</v>
       </c>
       <c r="F26" s="3">
-        <v>-9400</v>
+        <v>12000</v>
       </c>
       <c r="G26" s="3">
-        <v>10400</v>
+        <v>-9700</v>
       </c>
       <c r="H26" s="3">
-        <v>12800</v>
+        <v>10700</v>
       </c>
       <c r="I26" s="3">
-        <v>9900</v>
+        <v>13200</v>
       </c>
       <c r="J26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1697,72 +1749,78 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9400</v>
+        <v>5500</v>
       </c>
       <c r="E27" s="3">
-        <v>11600</v>
+        <v>9700</v>
       </c>
       <c r="F27" s="3">
-        <v>-9400</v>
+        <v>12000</v>
       </c>
       <c r="G27" s="3">
-        <v>10400</v>
+        <v>-9700</v>
       </c>
       <c r="H27" s="3">
-        <v>12800</v>
+        <v>10700</v>
       </c>
       <c r="I27" s="3">
-        <v>9900</v>
+        <v>13200</v>
       </c>
       <c r="J27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,44 +2052,47 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>12100</v>
-      </c>
       <c r="G32" s="3">
-        <v>-4700</v>
+        <v>12500</v>
       </c>
       <c r="H32" s="3">
-        <v>-6900</v>
+        <v>-4800</v>
       </c>
       <c r="I32" s="3">
-        <v>-2000</v>
+        <v>-7100</v>
       </c>
       <c r="J32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K32" s="3">
         <v>13500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2032,73 +2102,79 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9400</v>
+        <v>5500</v>
       </c>
       <c r="E33" s="3">
-        <v>11600</v>
+        <v>9700</v>
       </c>
       <c r="F33" s="3">
-        <v>-9400</v>
+        <v>12000</v>
       </c>
       <c r="G33" s="3">
-        <v>10400</v>
+        <v>-9700</v>
       </c>
       <c r="H33" s="3">
-        <v>12800</v>
+        <v>10700</v>
       </c>
       <c r="I33" s="3">
-        <v>9900</v>
+        <v>13200</v>
       </c>
       <c r="J33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9400</v>
+        <v>5500</v>
       </c>
       <c r="E35" s="3">
-        <v>11600</v>
+        <v>9700</v>
       </c>
       <c r="F35" s="3">
-        <v>-9400</v>
+        <v>12000</v>
       </c>
       <c r="G35" s="3">
-        <v>10400</v>
+        <v>-9700</v>
       </c>
       <c r="H35" s="3">
-        <v>12800</v>
+        <v>10700</v>
       </c>
       <c r="I35" s="3">
-        <v>9900</v>
+        <v>13200</v>
       </c>
       <c r="J35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,41 +2400,42 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>29500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>34600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>41900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>41200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K41" s="3">
+        <v>31300</v>
+      </c>
+      <c r="L41" s="3">
         <v>24400</v>
       </c>
-      <c r="E41" s="3">
-        <v>28600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>33500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>40600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>39900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>37300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>31300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>24400</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2359,43 +2446,46 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="E42" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="F42" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G42" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J42" s="3">
         <v>5600</v>
       </c>
-      <c r="I42" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2501,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2426,41 +2516,44 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>52800</v>
+        <v>45900</v>
       </c>
       <c r="E43" s="3">
-        <v>31200</v>
+        <v>54500</v>
       </c>
       <c r="F43" s="3">
-        <v>28900</v>
+        <v>32200</v>
       </c>
       <c r="G43" s="3">
-        <v>33600</v>
+        <v>29800</v>
       </c>
       <c r="H43" s="3">
-        <v>33800</v>
+        <v>34700</v>
       </c>
       <c r="I43" s="3">
-        <v>27200</v>
+        <v>34900</v>
       </c>
       <c r="J43" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K43" s="3">
         <v>31800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,8 +2566,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,41 +2634,44 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11800</v>
+        <v>16200</v>
       </c>
       <c r="E45" s="3">
-        <v>11100</v>
+        <v>12100</v>
       </c>
       <c r="F45" s="3">
-        <v>23000</v>
+        <v>11400</v>
       </c>
       <c r="G45" s="3">
-        <v>3700</v>
+        <v>23800</v>
       </c>
       <c r="H45" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="I45" s="3">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="J45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8400</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2585,8 +2684,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2594,41 +2693,44 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>94500</v>
+        <v>90700</v>
       </c>
       <c r="E46" s="3">
-        <v>76300</v>
+        <v>97500</v>
       </c>
       <c r="F46" s="3">
-        <v>90800</v>
+        <v>78800</v>
       </c>
       <c r="G46" s="3">
-        <v>83600</v>
+        <v>93700</v>
       </c>
       <c r="H46" s="3">
-        <v>82900</v>
+        <v>86300</v>
       </c>
       <c r="I46" s="3">
-        <v>72700</v>
+        <v>85500</v>
       </c>
       <c r="J46" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K46" s="3">
         <v>65000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>53500</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2636,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -2645,36 +2747,39 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24700</v>
+        <v>25800</v>
       </c>
       <c r="E47" s="3">
-        <v>24600</v>
+        <v>25500</v>
       </c>
       <c r="F47" s="3">
-        <v>14200</v>
+        <v>25400</v>
       </c>
       <c r="G47" s="3">
-        <v>7400</v>
+        <v>14600</v>
       </c>
       <c r="H47" s="3">
-        <v>3200</v>
+        <v>7600</v>
       </c>
       <c r="I47" s="3">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="J47" s="3">
-        <v>700</v>
+        <v>1900</v>
       </c>
       <c r="K47" s="3">
         <v>700</v>
@@ -2683,42 +2788,45 @@
         <v>700</v>
       </c>
       <c r="M47" s="3">
+        <v>700</v>
+      </c>
+      <c r="N47" s="3">
         <v>8700</v>
-      </c>
-      <c r="N47" s="3">
-        <v>9000</v>
       </c>
       <c r="O47" s="3">
         <v>9000</v>
       </c>
       <c r="P47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>9100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2736,11 +2844,11 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2861,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2762,41 +2870,44 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>82900</v>
+        <v>85200</v>
       </c>
       <c r="E49" s="3">
-        <v>83100</v>
+        <v>85500</v>
       </c>
       <c r="F49" s="3">
-        <v>45600</v>
+        <v>85700</v>
       </c>
       <c r="G49" s="3">
-        <v>45800</v>
+        <v>47100</v>
       </c>
       <c r="H49" s="3">
-        <v>45900</v>
+        <v>47200</v>
       </c>
       <c r="I49" s="3">
-        <v>46000</v>
+        <v>47400</v>
       </c>
       <c r="J49" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K49" s="3">
         <v>46200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>48600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2809,8 +2920,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,34 +3059,34 @@
         <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2978,16 +3098,19 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>204700</v>
+        <v>204300</v>
       </c>
       <c r="E54" s="3">
-        <v>186800</v>
+        <v>211200</v>
       </c>
       <c r="F54" s="3">
-        <v>151600</v>
+        <v>192700</v>
       </c>
       <c r="G54" s="3">
-        <v>139400</v>
+        <v>156500</v>
       </c>
       <c r="H54" s="3">
-        <v>133100</v>
+        <v>143800</v>
       </c>
       <c r="I54" s="3">
-        <v>121600</v>
+        <v>137400</v>
       </c>
       <c r="J54" s="3">
+        <v>125500</v>
+      </c>
+      <c r="K54" s="3">
         <v>113000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>9000</v>
       </c>
       <c r="O54" s="3">
         <v>9000</v>
       </c>
       <c r="P54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Q54" s="3">
         <v>9100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,41 +3272,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15300</v>
+        <v>5400</v>
       </c>
       <c r="E57" s="3">
-        <v>8500</v>
+        <v>15800</v>
       </c>
       <c r="F57" s="3">
-        <v>11900</v>
+        <v>8800</v>
       </c>
       <c r="G57" s="3">
-        <v>4900</v>
+        <v>12300</v>
       </c>
       <c r="H57" s="3">
-        <v>6400</v>
+        <v>5100</v>
       </c>
       <c r="I57" s="3">
-        <v>4000</v>
+        <v>6600</v>
       </c>
       <c r="J57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K57" s="3">
         <v>9300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3189,8 +3320,8 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -3198,13 +3329,16 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>700</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -3212,17 +3346,17 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
-        <v>1700</v>
-      </c>
       <c r="I58" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3230,11 +3364,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3246,51 +3380,54 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23600</v>
+        <v>21300</v>
       </c>
       <c r="E59" s="3">
-        <v>22000</v>
+        <v>24300</v>
       </c>
       <c r="F59" s="3">
-        <v>18800</v>
+        <v>22700</v>
       </c>
       <c r="G59" s="3">
-        <v>22200</v>
+        <v>19400</v>
       </c>
       <c r="H59" s="3">
-        <v>26000</v>
+        <v>22900</v>
       </c>
       <c r="I59" s="3">
-        <v>31500</v>
+        <v>26800</v>
       </c>
       <c r="J59" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K59" s="3">
         <v>29300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3304,47 +3441,50 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38900</v>
+        <v>27400</v>
       </c>
       <c r="E60" s="3">
-        <v>30500</v>
+        <v>40100</v>
       </c>
       <c r="F60" s="3">
-        <v>30800</v>
+        <v>31500</v>
       </c>
       <c r="G60" s="3">
-        <v>28700</v>
+        <v>31800</v>
       </c>
       <c r="H60" s="3">
-        <v>34100</v>
+        <v>29600</v>
       </c>
       <c r="I60" s="3">
-        <v>37200</v>
+        <v>35200</v>
       </c>
       <c r="J60" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K60" s="3">
         <v>38600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29200</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
@@ -3358,16 +3498,19 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3399,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -3414,7 +3557,7 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3422,40 +3565,43 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="E62" s="3">
         <v>10800</v>
       </c>
       <c r="F62" s="3">
-        <v>8200</v>
+        <v>11200</v>
       </c>
       <c r="G62" s="3">
-        <v>9300</v>
+        <v>8400</v>
       </c>
       <c r="H62" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="I62" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="J62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K62" s="3">
         <v>10400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
@@ -3469,8 +3615,8 @@
       <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>300</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,43 +3801,46 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>49300</v>
+        <v>38000</v>
       </c>
       <c r="E66" s="3">
-        <v>41400</v>
+        <v>50800</v>
       </c>
       <c r="F66" s="3">
-        <v>39000</v>
+        <v>42700</v>
       </c>
       <c r="G66" s="3">
-        <v>38100</v>
+        <v>40200</v>
       </c>
       <c r="H66" s="3">
-        <v>43900</v>
+        <v>39300</v>
       </c>
       <c r="I66" s="3">
-        <v>47600</v>
+        <v>45300</v>
       </c>
       <c r="J66" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K66" s="3">
         <v>49000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
@@ -3697,13 +3855,16 @@
         <v>400</v>
       </c>
       <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,41 +4119,44 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>92100</v>
+        <v>100600</v>
       </c>
       <c r="E72" s="3">
-        <v>82700</v>
+        <v>95100</v>
       </c>
       <c r="F72" s="3">
-        <v>71100</v>
+        <v>85300</v>
       </c>
       <c r="G72" s="3">
-        <v>80500</v>
+        <v>73400</v>
       </c>
       <c r="H72" s="3">
-        <v>70200</v>
+        <v>83100</v>
       </c>
       <c r="I72" s="3">
-        <v>57300</v>
+        <v>72400</v>
       </c>
       <c r="J72" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K72" s="3">
         <v>47500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47800</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
@@ -3996,16 +4170,19 @@
         <v>0</v>
       </c>
       <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
         <v>-100</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>155400</v>
+        <v>166300</v>
       </c>
       <c r="E76" s="3">
-        <v>145400</v>
+        <v>160400</v>
       </c>
       <c r="F76" s="3">
-        <v>112700</v>
+        <v>150000</v>
       </c>
       <c r="G76" s="3">
-        <v>101300</v>
+        <v>116300</v>
       </c>
       <c r="H76" s="3">
-        <v>89200</v>
+        <v>104500</v>
       </c>
       <c r="I76" s="3">
-        <v>74000</v>
+        <v>92000</v>
       </c>
       <c r="J76" s="3">
+        <v>76300</v>
+      </c>
+      <c r="K76" s="3">
         <v>64000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>8600</v>
       </c>
       <c r="O76" s="3">
         <v>8600</v>
       </c>
       <c r="P76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>8700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8500</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9400</v>
+        <v>5500</v>
       </c>
       <c r="E81" s="3">
-        <v>11600</v>
+        <v>9700</v>
       </c>
       <c r="F81" s="3">
-        <v>-9400</v>
+        <v>12000</v>
       </c>
       <c r="G81" s="3">
-        <v>10400</v>
+        <v>-9700</v>
       </c>
       <c r="H81" s="3">
-        <v>12800</v>
+        <v>10700</v>
       </c>
       <c r="I81" s="3">
-        <v>9900</v>
+        <v>13200</v>
       </c>
       <c r="J81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,34 +4621,35 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -4458,8 +4657,8 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,40 +4973,43 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4801,22 +5018,25 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,34 +5057,35 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4872,8 +5093,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+        <v>-11500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5333,64 +5579,67 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>9100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8900</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -5398,8 +5647,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5419,40 +5668,43 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5464,15 +5716,18 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>SJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,135 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>64500</v>
+        <v>75900</v>
       </c>
       <c r="E8" s="3">
-        <v>72700</v>
+        <v>63900</v>
       </c>
       <c r="F8" s="3">
-        <v>66600</v>
+        <v>72000</v>
       </c>
       <c r="G8" s="3">
-        <v>71600</v>
+        <v>65900</v>
       </c>
       <c r="H8" s="3">
-        <v>59300</v>
+        <v>70800</v>
       </c>
       <c r="I8" s="3">
-        <v>56500</v>
+        <v>58700</v>
       </c>
       <c r="J8" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K8" s="3">
         <v>52400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31900</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,8 +803,8 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -809,47 +812,50 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>54400</v>
+        <v>75200</v>
       </c>
       <c r="E9" s="3">
-        <v>59400</v>
+        <v>53900</v>
       </c>
       <c r="F9" s="3">
-        <v>50100</v>
+        <v>58800</v>
       </c>
       <c r="G9" s="3">
-        <v>61200</v>
+        <v>49600</v>
       </c>
       <c r="H9" s="3">
-        <v>48900</v>
+        <v>60600</v>
       </c>
       <c r="I9" s="3">
-        <v>45000</v>
+        <v>48400</v>
       </c>
       <c r="J9" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K9" s="3">
         <v>40900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>26000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -868,47 +874,50 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10100</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
-        <v>13400</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="3">
-        <v>16400</v>
+        <v>13200</v>
       </c>
       <c r="G10" s="3">
-        <v>10400</v>
+        <v>16300</v>
       </c>
       <c r="H10" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="I10" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K10" s="3">
         <v>11500</v>
       </c>
-      <c r="J10" s="3">
-        <v>11500</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,47 +962,48 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="3">
         <v>2600</v>
       </c>
       <c r="F12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,106 +1231,110 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59500</v>
+        <v>78700</v>
       </c>
       <c r="E17" s="3">
-        <v>64800</v>
+        <v>58900</v>
       </c>
       <c r="F17" s="3">
-        <v>55300</v>
+        <v>64100</v>
       </c>
       <c r="G17" s="3">
-        <v>68800</v>
+        <v>54800</v>
       </c>
       <c r="H17" s="3">
-        <v>53400</v>
+        <v>68100</v>
       </c>
       <c r="I17" s="3">
-        <v>49900</v>
+        <v>52900</v>
       </c>
       <c r="J17" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K17" s="3">
         <v>43800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5100</v>
+        <v>-2800</v>
       </c>
       <c r="E18" s="3">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="F18" s="3">
-        <v>11200</v>
+        <v>7900</v>
       </c>
       <c r="G18" s="3">
-        <v>2800</v>
+        <v>11100</v>
       </c>
       <c r="H18" s="3">
-        <v>5900</v>
+        <v>2700</v>
       </c>
       <c r="I18" s="3">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="J18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K18" s="3">
         <v>8600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>7500</v>
       </c>
       <c r="L18" s="3">
         <v>7500</v>
       </c>
       <c r="M18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="N18" s="3">
         <v>7300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1315,17 +1344,20 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,47 +1379,48 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-12500</v>
-      </c>
       <c r="H20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="I20" s="3">
         <v>4800</v>
       </c>
-      <c r="I20" s="3">
-        <v>7100</v>
-      </c>
       <c r="J20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,28 +1430,31 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1432,12 +1468,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-5700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1465,13 +1501,16 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1479,20 +1518,20 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1509,8 +1548,8 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1524,47 +1563,50 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7100</v>
+        <v>1200</v>
       </c>
       <c r="E23" s="3">
-        <v>9600</v>
+        <v>7000</v>
       </c>
       <c r="F23" s="3">
-        <v>12800</v>
+        <v>9500</v>
       </c>
       <c r="G23" s="3">
-        <v>-9800</v>
+        <v>12600</v>
       </c>
       <c r="H23" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K23" s="3">
         <v>10700</v>
       </c>
-      <c r="I23" s="3">
-        <v>13600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>10700</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5800</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1575,54 +1617,57 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>300</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1633,8 +1678,8 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,47 +1749,50 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5900</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
-        <v>9700</v>
+        <v>5800</v>
       </c>
       <c r="F26" s="3">
-        <v>12000</v>
+        <v>9600</v>
       </c>
       <c r="G26" s="3">
-        <v>-9700</v>
+        <v>11800</v>
       </c>
       <c r="H26" s="3">
-        <v>10700</v>
+        <v>-9600</v>
       </c>
       <c r="I26" s="3">
-        <v>13200</v>
+        <v>10600</v>
       </c>
       <c r="J26" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K26" s="3">
         <v>10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1752,75 +1803,81 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>5500</v>
       </c>
-      <c r="E27" s="3">
-        <v>9700</v>
-      </c>
       <c r="F27" s="3">
-        <v>12000</v>
+        <v>9600</v>
       </c>
       <c r="G27" s="3">
-        <v>-9700</v>
+        <v>11800</v>
       </c>
       <c r="H27" s="3">
-        <v>10700</v>
+        <v>-9600</v>
       </c>
       <c r="I27" s="3">
-        <v>13200</v>
+        <v>10600</v>
       </c>
       <c r="J27" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K27" s="3">
         <v>10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,47 +2121,50 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
-        <v>12500</v>
-      </c>
       <c r="H32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-7100</v>
-      </c>
       <c r="J32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2105,76 +2174,82 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>5500</v>
       </c>
-      <c r="E33" s="3">
-        <v>9700</v>
-      </c>
       <c r="F33" s="3">
-        <v>12000</v>
+        <v>9600</v>
       </c>
       <c r="G33" s="3">
-        <v>-9700</v>
+        <v>11800</v>
       </c>
       <c r="H33" s="3">
-        <v>10700</v>
+        <v>-9600</v>
       </c>
       <c r="I33" s="3">
-        <v>13200</v>
+        <v>10600</v>
       </c>
       <c r="J33" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K33" s="3">
         <v>10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>5500</v>
       </c>
-      <c r="E35" s="3">
-        <v>9700</v>
-      </c>
       <c r="F35" s="3">
-        <v>12000</v>
+        <v>9600</v>
       </c>
       <c r="G35" s="3">
-        <v>-9700</v>
+        <v>11800</v>
       </c>
       <c r="H35" s="3">
-        <v>10700</v>
+        <v>-9600</v>
       </c>
       <c r="I35" s="3">
-        <v>13200</v>
+        <v>10600</v>
       </c>
       <c r="J35" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K35" s="3">
         <v>10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,44 +2486,45 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22800</v>
+        <v>24900</v>
       </c>
       <c r="E41" s="3">
-        <v>25200</v>
+        <v>22600</v>
       </c>
       <c r="F41" s="3">
-        <v>29500</v>
+        <v>24900</v>
       </c>
       <c r="G41" s="3">
-        <v>34600</v>
+        <v>29200</v>
       </c>
       <c r="H41" s="3">
-        <v>41900</v>
+        <v>34300</v>
       </c>
       <c r="I41" s="3">
-        <v>41200</v>
+        <v>41500</v>
       </c>
       <c r="J41" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K41" s="3">
         <v>38500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2449,19 +2535,22 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2478,17 +2567,17 @@
         <v>5600</v>
       </c>
       <c r="H42" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="I42" s="3">
         <v>5800</v>
       </c>
       <c r="J42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K42" s="3">
         <v>5600</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2504,8 +2593,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2519,44 +2608,47 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45900</v>
+        <v>45200</v>
       </c>
       <c r="E43" s="3">
-        <v>54500</v>
+        <v>45400</v>
       </c>
       <c r="F43" s="3">
-        <v>32200</v>
+        <v>53900</v>
       </c>
       <c r="G43" s="3">
-        <v>29800</v>
+        <v>31900</v>
       </c>
       <c r="H43" s="3">
-        <v>34700</v>
+        <v>29500</v>
       </c>
       <c r="I43" s="3">
-        <v>34900</v>
+        <v>34300</v>
       </c>
       <c r="J43" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K43" s="3">
         <v>28100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,8 +2661,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,44 +2732,47 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="E45" s="3">
-        <v>12100</v>
+        <v>16100</v>
       </c>
       <c r="F45" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="3">
-        <v>23800</v>
+        <v>11300</v>
       </c>
       <c r="H45" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
-        <v>3600</v>
-      </c>
       <c r="J45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8400</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2687,8 +2785,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -2696,44 +2794,47 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>90700</v>
+        <v>92200</v>
       </c>
       <c r="E46" s="3">
-        <v>97500</v>
+        <v>89800</v>
       </c>
       <c r="F46" s="3">
-        <v>78800</v>
+        <v>96500</v>
       </c>
       <c r="G46" s="3">
-        <v>93700</v>
+        <v>78000</v>
       </c>
       <c r="H46" s="3">
-        <v>86300</v>
+        <v>92800</v>
       </c>
       <c r="I46" s="3">
-        <v>85500</v>
+        <v>85400</v>
       </c>
       <c r="J46" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K46" s="3">
         <v>75000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>65000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>53500</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2741,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
@@ -2750,39 +2851,42 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25800</v>
+        <v>33300</v>
       </c>
       <c r="E47" s="3">
         <v>25500</v>
       </c>
       <c r="F47" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="G47" s="3">
-        <v>14600</v>
+        <v>25200</v>
       </c>
       <c r="H47" s="3">
-        <v>7600</v>
+        <v>14500</v>
       </c>
       <c r="I47" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J47" s="3">
         <v>3300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>700</v>
       </c>
       <c r="L47" s="3">
         <v>700</v>
@@ -2791,45 +2895,48 @@
         <v>700</v>
       </c>
       <c r="N47" s="3">
+        <v>700</v>
+      </c>
+      <c r="O47" s="3">
         <v>8700</v>
-      </c>
-      <c r="O47" s="3">
-        <v>9000</v>
       </c>
       <c r="P47" s="3">
         <v>9000</v>
       </c>
       <c r="Q47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="R47" s="3">
         <v>9100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2847,11 +2954,11 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2971,8 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2873,44 +2980,47 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>85200</v>
+        <v>84100</v>
       </c>
       <c r="E49" s="3">
-        <v>85500</v>
+        <v>84400</v>
       </c>
       <c r="F49" s="3">
-        <v>85700</v>
+        <v>84600</v>
       </c>
       <c r="G49" s="3">
-        <v>47100</v>
+        <v>84900</v>
       </c>
       <c r="H49" s="3">
-        <v>47200</v>
+        <v>46600</v>
       </c>
       <c r="I49" s="3">
-        <v>47400</v>
+        <v>46700</v>
       </c>
       <c r="J49" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K49" s="3">
         <v>47500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>48600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2923,8 +3033,8 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3068,28 +3187,28 @@
         <v>800</v>
       </c>
       <c r="H52" s="3">
+        <v>800</v>
+      </c>
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3101,16 +3220,19 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>204300</v>
+        <v>213500</v>
       </c>
       <c r="E54" s="3">
-        <v>211200</v>
+        <v>202200</v>
       </c>
       <c r="F54" s="3">
-        <v>192700</v>
+        <v>209000</v>
       </c>
       <c r="G54" s="3">
-        <v>156500</v>
+        <v>190700</v>
       </c>
       <c r="H54" s="3">
-        <v>143800</v>
+        <v>154900</v>
       </c>
       <c r="I54" s="3">
-        <v>137400</v>
+        <v>142300</v>
       </c>
       <c r="J54" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K54" s="3">
         <v>125500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>9000</v>
       </c>
       <c r="P54" s="3">
         <v>9000</v>
       </c>
       <c r="Q54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="R54" s="3">
         <v>9100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,44 +3402,45 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
-        <v>15800</v>
-      </c>
       <c r="F57" s="3">
-        <v>8800</v>
+        <v>15600</v>
       </c>
       <c r="G57" s="3">
-        <v>12300</v>
+        <v>8700</v>
       </c>
       <c r="H57" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>9300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3323,8 +3453,8 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3332,16 +3462,19 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -3349,29 +3482,29 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3383,54 +3516,57 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21300</v>
+        <v>20500</v>
       </c>
       <c r="E59" s="3">
-        <v>24300</v>
+        <v>21100</v>
       </c>
       <c r="F59" s="3">
+        <v>24100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I59" s="3">
         <v>22700</v>
       </c>
-      <c r="G59" s="3">
-        <v>19400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>22900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>26800</v>
-      </c>
       <c r="J59" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K59" s="3">
         <v>32500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3444,50 +3580,53 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27400</v>
+        <v>37700</v>
       </c>
       <c r="E60" s="3">
-        <v>40100</v>
+        <v>27100</v>
       </c>
       <c r="F60" s="3">
-        <v>31500</v>
+        <v>39700</v>
       </c>
       <c r="G60" s="3">
-        <v>31800</v>
+        <v>31200</v>
       </c>
       <c r="H60" s="3">
-        <v>29600</v>
+        <v>31400</v>
       </c>
       <c r="I60" s="3">
-        <v>35200</v>
+        <v>29300</v>
       </c>
       <c r="J60" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K60" s="3">
         <v>38300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29200</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
@@ -3501,16 +3640,19 @@
         <v>0</v>
       </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3545,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3560,7 +3702,7 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -3568,43 +3710,46 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="E62" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K62" s="3">
         <v>10800</v>
       </c>
-      <c r="F62" s="3">
-        <v>11200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>10100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>10800</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
@@ -3618,8 +3763,8 @@
       <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="S62" s="3">
+        <v>300</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,46 +3958,49 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38000</v>
+        <v>48500</v>
       </c>
       <c r="E66" s="3">
-        <v>50800</v>
+        <v>37600</v>
       </c>
       <c r="F66" s="3">
-        <v>42700</v>
+        <v>50300</v>
       </c>
       <c r="G66" s="3">
-        <v>40200</v>
+        <v>42200</v>
       </c>
       <c r="H66" s="3">
-        <v>39300</v>
+        <v>39800</v>
       </c>
       <c r="I66" s="3">
-        <v>45300</v>
+        <v>38900</v>
       </c>
       <c r="J66" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K66" s="3">
         <v>49200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
@@ -3858,13 +4015,16 @@
         <v>400</v>
       </c>
       <c r="T66" s="3">
+        <v>400</v>
+      </c>
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,44 +4292,47 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>100600</v>
+        <v>100100</v>
       </c>
       <c r="E72" s="3">
-        <v>95100</v>
+        <v>99600</v>
       </c>
       <c r="F72" s="3">
-        <v>85300</v>
+        <v>94100</v>
       </c>
       <c r="G72" s="3">
-        <v>73400</v>
+        <v>84500</v>
       </c>
       <c r="H72" s="3">
-        <v>83100</v>
+        <v>72600</v>
       </c>
       <c r="I72" s="3">
-        <v>72400</v>
+        <v>82200</v>
       </c>
       <c r="J72" s="3">
+        <v>71600</v>
+      </c>
+      <c r="K72" s="3">
         <v>59200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>56300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47800</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
@@ -4173,16 +4346,19 @@
         <v>0</v>
       </c>
       <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
         <v>-100</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>166300</v>
+        <v>165000</v>
       </c>
       <c r="E76" s="3">
-        <v>160400</v>
+        <v>164600</v>
       </c>
       <c r="F76" s="3">
-        <v>150000</v>
+        <v>158700</v>
       </c>
       <c r="G76" s="3">
-        <v>116300</v>
+        <v>148500</v>
       </c>
       <c r="H76" s="3">
-        <v>104500</v>
+        <v>115100</v>
       </c>
       <c r="I76" s="3">
-        <v>92000</v>
+        <v>103500</v>
       </c>
       <c r="J76" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K76" s="3">
         <v>76300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>64000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>8600</v>
       </c>
       <c r="P76" s="3">
         <v>8600</v>
       </c>
       <c r="Q76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="R76" s="3">
         <v>8700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8500</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
         <v>0</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>5500</v>
       </c>
-      <c r="E81" s="3">
-        <v>9700</v>
-      </c>
       <c r="F81" s="3">
-        <v>12000</v>
+        <v>9600</v>
       </c>
       <c r="G81" s="3">
-        <v>-9700</v>
+        <v>11800</v>
       </c>
       <c r="H81" s="3">
-        <v>10700</v>
+        <v>-9600</v>
       </c>
       <c r="I81" s="3">
-        <v>13200</v>
+        <v>10600</v>
       </c>
       <c r="J81" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K81" s="3">
         <v>10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,20 +4819,21 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4648,11 +4846,11 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -4660,8 +4858,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,19 +5189,22 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -5002,17 +5218,17 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5021,22 +5237,25 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,37 +5277,38 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -5096,8 +5316,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,19 +5461,22 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-11400</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -5261,41 +5490,44 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-9000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5582,50 +5827,53 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>9100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8900</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5638,11 +5886,11 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -5650,8 +5898,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5671,19 +5919,22 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-9300</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -5697,17 +5948,17 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5719,15 +5970,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>SJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,142 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>75900</v>
+        <v>41900</v>
       </c>
       <c r="E8" s="3">
-        <v>63900</v>
+        <v>73500</v>
       </c>
       <c r="F8" s="3">
-        <v>72000</v>
+        <v>61900</v>
       </c>
       <c r="G8" s="3">
-        <v>65900</v>
+        <v>69800</v>
       </c>
       <c r="H8" s="3">
-        <v>70800</v>
+        <v>63800</v>
       </c>
       <c r="I8" s="3">
-        <v>58700</v>
+        <v>68600</v>
       </c>
       <c r="J8" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K8" s="3">
         <v>55900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>63300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31900</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,8 +810,8 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -815,50 +819,53 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>75200</v>
+        <v>36400</v>
       </c>
       <c r="E9" s="3">
-        <v>53900</v>
+        <v>72900</v>
       </c>
       <c r="F9" s="3">
-        <v>58800</v>
+        <v>52200</v>
       </c>
       <c r="G9" s="3">
-        <v>49600</v>
+        <v>57000</v>
       </c>
       <c r="H9" s="3">
-        <v>60600</v>
+        <v>48100</v>
       </c>
       <c r="I9" s="3">
-        <v>48400</v>
+        <v>58700</v>
       </c>
       <c r="J9" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K9" s="3">
         <v>44500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>26000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -877,50 +884,53 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J10" s="3">
         <v>10000</v>
       </c>
-      <c r="F10" s="3">
-        <v>13200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>16300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7600</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,50 +976,51 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="E12" s="3">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="F12" s="3">
         <v>2600</v>
       </c>
       <c r="G12" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H12" s="3">
-        <v>4300</v>
+        <v>2300</v>
       </c>
       <c r="I12" s="3">
-        <v>2300</v>
+        <v>4200</v>
       </c>
       <c r="J12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,112 +1258,116 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>78700</v>
+        <v>41200</v>
       </c>
       <c r="E17" s="3">
-        <v>58900</v>
+        <v>76200</v>
       </c>
       <c r="F17" s="3">
-        <v>64100</v>
+        <v>57000</v>
       </c>
       <c r="G17" s="3">
-        <v>54800</v>
+        <v>62100</v>
       </c>
       <c r="H17" s="3">
-        <v>68100</v>
+        <v>53100</v>
       </c>
       <c r="I17" s="3">
-        <v>52900</v>
+        <v>66000</v>
       </c>
       <c r="J17" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K17" s="3">
         <v>49400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2800</v>
+        <v>700</v>
       </c>
       <c r="E18" s="3">
-        <v>5000</v>
+        <v>-2700</v>
       </c>
       <c r="F18" s="3">
-        <v>7900</v>
+        <v>4900</v>
       </c>
       <c r="G18" s="3">
-        <v>11100</v>
+        <v>7700</v>
       </c>
       <c r="H18" s="3">
-        <v>2700</v>
+        <v>10800</v>
       </c>
       <c r="I18" s="3">
-        <v>5800</v>
+        <v>2600</v>
       </c>
       <c r="J18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K18" s="3">
         <v>6500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>7500</v>
       </c>
       <c r="M18" s="3">
         <v>7500</v>
       </c>
       <c r="N18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="O18" s="3">
         <v>7300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,17 +1377,20 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,50 +1413,51 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4000</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="F20" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="G20" s="3">
         <v>1500</v>
       </c>
       <c r="H20" s="3">
-        <v>-12400</v>
+        <v>1500</v>
       </c>
       <c r="I20" s="3">
-        <v>4800</v>
+        <v>-12000</v>
       </c>
       <c r="J20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1433,31 +1467,34 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1471,12 +1508,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-5700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1504,16 +1541,19 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1521,20 +1561,20 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1551,8 +1591,8 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1566,50 +1606,53 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
-        <v>7000</v>
-      </c>
       <c r="F23" s="3">
-        <v>9500</v>
+        <v>6800</v>
       </c>
       <c r="G23" s="3">
-        <v>12600</v>
+        <v>9200</v>
       </c>
       <c r="H23" s="3">
-        <v>-9700</v>
+        <v>12200</v>
       </c>
       <c r="I23" s="3">
-        <v>10600</v>
+        <v>-9400</v>
       </c>
       <c r="J23" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K23" s="3">
         <v>13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5800</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1620,57 +1663,60 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>300</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1681,8 +1727,8 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,50 +1801,53 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
-        <v>5800</v>
-      </c>
       <c r="F26" s="3">
-        <v>9600</v>
+        <v>5700</v>
       </c>
       <c r="G26" s="3">
-        <v>11800</v>
+        <v>9300</v>
       </c>
       <c r="H26" s="3">
-        <v>-9600</v>
+        <v>11500</v>
       </c>
       <c r="I26" s="3">
-        <v>10600</v>
+        <v>-9300</v>
       </c>
       <c r="J26" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K26" s="3">
         <v>13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5500</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1806,78 +1858,84 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>600</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O27" s="3">
+        <v>17900</v>
+      </c>
+      <c r="P27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>11800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>10200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>8900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>17900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>5500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,50 +2191,53 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4000</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
-        <v>-2000</v>
+        <v>-3900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="G32" s="3">
         <v>-1500</v>
       </c>
       <c r="H32" s="3">
-        <v>12400</v>
+        <v>-1500</v>
       </c>
       <c r="I32" s="3">
-        <v>-4800</v>
+        <v>12000</v>
       </c>
       <c r="J32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2177,79 +2247,85 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>600</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O33" s="3">
+        <v>17900</v>
+      </c>
+      <c r="P33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>11800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>10200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>8900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>17900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>5500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>600</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O35" s="3">
+        <v>17900</v>
+      </c>
+      <c r="P35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>11800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>10200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>8900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>17900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>5500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,47 +2573,48 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24900</v>
+        <v>24800</v>
       </c>
       <c r="E41" s="3">
-        <v>22600</v>
+        <v>24200</v>
       </c>
       <c r="F41" s="3">
-        <v>24900</v>
+        <v>21900</v>
       </c>
       <c r="G41" s="3">
-        <v>29200</v>
+        <v>24200</v>
       </c>
       <c r="H41" s="3">
-        <v>34300</v>
+        <v>28300</v>
       </c>
       <c r="I41" s="3">
-        <v>41500</v>
+        <v>33200</v>
       </c>
       <c r="J41" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K41" s="3">
         <v>40800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2538,19 +2625,22 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2558,29 +2648,29 @@
         <v>5800</v>
       </c>
       <c r="E42" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J42" s="3">
         <v>5600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="K42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L42" s="3">
         <v>5600</v>
       </c>
-      <c r="H42" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J42" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K42" s="3">
-        <v>5600</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,8 +2686,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2611,47 +2701,50 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45200</v>
+        <v>33000</v>
       </c>
       <c r="E43" s="3">
-        <v>45400</v>
+        <v>43800</v>
       </c>
       <c r="F43" s="3">
-        <v>53900</v>
+        <v>44000</v>
       </c>
       <c r="G43" s="3">
-        <v>31900</v>
+        <v>52300</v>
       </c>
       <c r="H43" s="3">
-        <v>29500</v>
+        <v>30900</v>
       </c>
       <c r="I43" s="3">
-        <v>34300</v>
+        <v>28600</v>
       </c>
       <c r="J43" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K43" s="3">
         <v>34600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +2757,8 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,47 +2831,50 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16400</v>
+        <v>15500</v>
       </c>
       <c r="E45" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="F45" s="3">
-        <v>12000</v>
+        <v>15600</v>
       </c>
       <c r="G45" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="H45" s="3">
-        <v>23500</v>
+        <v>10900</v>
       </c>
       <c r="I45" s="3">
-        <v>3800</v>
+        <v>22800</v>
       </c>
       <c r="J45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8400</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2788,8 +2887,8 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
@@ -2797,47 +2896,50 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>92200</v>
+        <v>79100</v>
       </c>
       <c r="E46" s="3">
-        <v>89800</v>
+        <v>89400</v>
       </c>
       <c r="F46" s="3">
-        <v>96500</v>
+        <v>87000</v>
       </c>
       <c r="G46" s="3">
-        <v>78000</v>
+        <v>93600</v>
       </c>
       <c r="H46" s="3">
-        <v>92800</v>
+        <v>75600</v>
       </c>
       <c r="I46" s="3">
-        <v>85400</v>
+        <v>89900</v>
       </c>
       <c r="J46" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K46" s="3">
         <v>84600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>65000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>52200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53500</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2845,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -2854,42 +2956,45 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33300</v>
+        <v>32700</v>
       </c>
       <c r="E47" s="3">
-        <v>25500</v>
+        <v>32300</v>
       </c>
       <c r="F47" s="3">
-        <v>25200</v>
+        <v>24700</v>
       </c>
       <c r="G47" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="H47" s="3">
-        <v>14500</v>
+        <v>24400</v>
       </c>
       <c r="I47" s="3">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="J47" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K47" s="3">
         <v>3300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1900</v>
-      </c>
-      <c r="L47" s="3">
-        <v>700</v>
       </c>
       <c r="M47" s="3">
         <v>700</v>
@@ -2898,48 +3003,51 @@
         <v>700</v>
       </c>
       <c r="O47" s="3">
+        <v>700</v>
+      </c>
+      <c r="P47" s="3">
         <v>8700</v>
-      </c>
-      <c r="P47" s="3">
-        <v>9000</v>
       </c>
       <c r="Q47" s="3">
         <v>9000</v>
       </c>
       <c r="R47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="S47" s="3">
         <v>9100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="E48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
         <v>1900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2957,11 +3065,11 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2974,8 +3082,8 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -2983,47 +3091,50 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>84100</v>
+        <v>81300</v>
       </c>
       <c r="E49" s="3">
-        <v>84400</v>
+        <v>81500</v>
       </c>
       <c r="F49" s="3">
-        <v>84600</v>
+        <v>81800</v>
       </c>
       <c r="G49" s="3">
-        <v>84900</v>
+        <v>82000</v>
       </c>
       <c r="H49" s="3">
-        <v>46600</v>
+        <v>82200</v>
       </c>
       <c r="I49" s="3">
-        <v>46700</v>
+        <v>45200</v>
       </c>
       <c r="J49" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K49" s="3">
         <v>46900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>47500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>48600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3036,8 +3147,8 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,7 +3298,7 @@
         <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
@@ -3187,31 +3307,31 @@
         <v>800</v>
       </c>
       <c r="H52" s="3">
+        <v>700</v>
+      </c>
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
-        <v>2500</v>
-      </c>
       <c r="J52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3223,16 +3343,19 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>213500</v>
+        <v>196700</v>
       </c>
       <c r="E54" s="3">
-        <v>202200</v>
+        <v>206900</v>
       </c>
       <c r="F54" s="3">
-        <v>209000</v>
+        <v>196000</v>
       </c>
       <c r="G54" s="3">
-        <v>190700</v>
+        <v>202600</v>
       </c>
       <c r="H54" s="3">
-        <v>154900</v>
+        <v>184900</v>
       </c>
       <c r="I54" s="3">
-        <v>142300</v>
+        <v>150100</v>
       </c>
       <c r="J54" s="3">
+        <v>138000</v>
+      </c>
+      <c r="K54" s="3">
         <v>136000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>125500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>102800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>54600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>9000</v>
       </c>
       <c r="Q54" s="3">
         <v>9000</v>
       </c>
       <c r="R54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="S54" s="3">
         <v>9100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,47 +3533,48 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="E57" s="3">
-        <v>5400</v>
+        <v>16000</v>
       </c>
       <c r="F57" s="3">
-        <v>15600</v>
+        <v>5200</v>
       </c>
       <c r="G57" s="3">
-        <v>8700</v>
+        <v>15100</v>
       </c>
       <c r="H57" s="3">
-        <v>12200</v>
+        <v>8400</v>
       </c>
       <c r="I57" s="3">
-        <v>5000</v>
+        <v>11800</v>
       </c>
       <c r="J57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3456,8 +3587,8 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3476,8 +3610,8 @@
       <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -3485,29 +3619,29 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3519,57 +3653,60 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="E59" s="3">
-        <v>21100</v>
+        <v>19900</v>
       </c>
       <c r="F59" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>23300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K59" s="3">
+        <v>26600</v>
+      </c>
+      <c r="L59" s="3">
+        <v>32500</v>
+      </c>
+      <c r="M59" s="3">
+        <v>29300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>27100</v>
+      </c>
+      <c r="O59" s="3">
         <v>24100</v>
       </c>
-      <c r="G59" s="3">
-        <v>22500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>19200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>22700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>26600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>32500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>29300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>27100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>24100</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3583,53 +3720,56 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37700</v>
+        <v>27300</v>
       </c>
       <c r="E60" s="3">
-        <v>27100</v>
+        <v>36600</v>
       </c>
       <c r="F60" s="3">
-        <v>39700</v>
+        <v>26300</v>
       </c>
       <c r="G60" s="3">
-        <v>31200</v>
+        <v>38500</v>
       </c>
       <c r="H60" s="3">
-        <v>31400</v>
+        <v>30200</v>
       </c>
       <c r="I60" s="3">
-        <v>29300</v>
+        <v>30500</v>
       </c>
       <c r="J60" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K60" s="3">
         <v>34800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29200</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
@@ -3643,16 +3783,19 @@
         <v>0</v>
       </c>
       <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3690,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
-      </c>
-      <c r="P61" s="3">
-        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -3705,7 +3848,7 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -3713,46 +3856,49 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10500</v>
+        <v>9700</v>
       </c>
       <c r="E62" s="3">
         <v>10200</v>
       </c>
       <c r="F62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H62" s="3">
         <v>10700</v>
       </c>
-      <c r="G62" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8400</v>
-      </c>
       <c r="I62" s="3">
-        <v>9500</v>
+        <v>8100</v>
       </c>
       <c r="J62" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K62" s="3">
         <v>10000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>300</v>
       </c>
       <c r="P62" s="3">
         <v>300</v>
@@ -3766,8 +3912,8 @@
       <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
+      <c r="T62" s="3">
+        <v>300</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,49 +4116,52 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48500</v>
+        <v>37000</v>
       </c>
       <c r="E66" s="3">
-        <v>37600</v>
+        <v>47000</v>
       </c>
       <c r="F66" s="3">
-        <v>50300</v>
+        <v>36500</v>
       </c>
       <c r="G66" s="3">
-        <v>42200</v>
+        <v>48800</v>
       </c>
       <c r="H66" s="3">
-        <v>39800</v>
+        <v>40900</v>
       </c>
       <c r="I66" s="3">
-        <v>38900</v>
+        <v>38600</v>
       </c>
       <c r="J66" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K66" s="3">
         <v>44900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
@@ -4018,13 +4176,16 @@
         <v>400</v>
       </c>
       <c r="U66" s="3">
+        <v>400</v>
+      </c>
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,47 +4466,50 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>100100</v>
+        <v>96600</v>
       </c>
       <c r="E72" s="3">
-        <v>99600</v>
+        <v>97000</v>
       </c>
       <c r="F72" s="3">
-        <v>94100</v>
+        <v>96500</v>
       </c>
       <c r="G72" s="3">
-        <v>84500</v>
+        <v>91200</v>
       </c>
       <c r="H72" s="3">
-        <v>72600</v>
+        <v>81900</v>
       </c>
       <c r="I72" s="3">
-        <v>82200</v>
+        <v>70400</v>
       </c>
       <c r="J72" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K72" s="3">
         <v>71600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>59200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>56300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>47800</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
@@ -4349,16 +4523,19 @@
         <v>0</v>
       </c>
       <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
         <v>-100</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>165000</v>
+        <v>159700</v>
       </c>
       <c r="E76" s="3">
-        <v>164600</v>
+        <v>159900</v>
       </c>
       <c r="F76" s="3">
-        <v>158700</v>
+        <v>159500</v>
       </c>
       <c r="G76" s="3">
-        <v>148500</v>
+        <v>153800</v>
       </c>
       <c r="H76" s="3">
-        <v>115100</v>
+        <v>143900</v>
       </c>
       <c r="I76" s="3">
-        <v>103500</v>
+        <v>111500</v>
       </c>
       <c r="J76" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K76" s="3">
         <v>91100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>64000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>8600</v>
       </c>
       <c r="Q76" s="3">
         <v>8600</v>
       </c>
       <c r="R76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="S76" s="3">
         <v>8700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8500</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
         <v>0</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>600</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O81" s="3">
+        <v>17900</v>
+      </c>
+      <c r="P81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>11800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>10200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>8900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>17900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>5500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,19 +5018,20 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3">
-        <v>600</v>
+      <c r="E83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -4849,11 +5048,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4861,8 +5060,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,19 +5406,22 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1900</v>
+      <c r="E89" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -5221,17 +5438,17 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5240,22 +5457,25 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,13 +5498,14 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5304,14 +5525,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -5319,8 +5540,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,19 +5691,22 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-11400</v>
+      <c r="E94" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -5493,41 +5723,44 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-9000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,31 +6041,34 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-1600</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5830,49 +6076,52 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>9100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8900</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -5889,11 +6138,11 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -5901,8 +6150,8 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5922,19 +6171,22 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-9300</v>
+      <c r="E102" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -5951,17 +6203,17 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5973,15 +6225,18 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>SJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,149 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>41900</v>
+        <v>50200</v>
       </c>
       <c r="E8" s="3">
-        <v>73500</v>
+        <v>42000</v>
       </c>
       <c r="F8" s="3">
-        <v>61900</v>
+        <v>73700</v>
       </c>
       <c r="G8" s="3">
-        <v>69800</v>
+        <v>62100</v>
       </c>
       <c r="H8" s="3">
-        <v>63800</v>
+        <v>69900</v>
       </c>
       <c r="I8" s="3">
-        <v>68600</v>
+        <v>64000</v>
       </c>
       <c r="J8" s="3">
+        <v>68800</v>
+      </c>
+      <c r="K8" s="3">
         <v>56900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31900</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,8 +817,8 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -822,53 +826,56 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>36400</v>
+        <v>43200</v>
       </c>
       <c r="E9" s="3">
-        <v>72900</v>
+        <v>36500</v>
       </c>
       <c r="F9" s="3">
-        <v>52200</v>
+        <v>73000</v>
       </c>
       <c r="G9" s="3">
-        <v>57000</v>
+        <v>52300</v>
       </c>
       <c r="H9" s="3">
-        <v>48100</v>
+        <v>57100</v>
       </c>
       <c r="I9" s="3">
-        <v>58700</v>
+        <v>48200</v>
       </c>
       <c r="J9" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K9" s="3">
         <v>46900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>26000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>24200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,53 +894,56 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9700</v>
       </c>
-      <c r="G10" s="3">
-        <v>12800</v>
-      </c>
       <c r="H10" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I10" s="3">
         <v>15800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9900</v>
       </c>
       <c r="J10" s="3">
         <v>10000</v>
       </c>
       <c r="K10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L10" s="3">
         <v>11400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7600</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,53 +990,54 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
         <v>2300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,118 +1285,122 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41200</v>
+        <v>48600</v>
       </c>
       <c r="E17" s="3">
-        <v>76200</v>
+        <v>41300</v>
       </c>
       <c r="F17" s="3">
-        <v>57000</v>
+        <v>76400</v>
       </c>
       <c r="G17" s="3">
-        <v>62100</v>
+        <v>57200</v>
       </c>
       <c r="H17" s="3">
-        <v>53100</v>
+        <v>62300</v>
       </c>
       <c r="I17" s="3">
-        <v>66000</v>
+        <v>53200</v>
       </c>
       <c r="J17" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K17" s="3">
         <v>51300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>27400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>7500</v>
       </c>
       <c r="N18" s="3">
         <v>7500</v>
       </c>
       <c r="O18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="P18" s="3">
         <v>7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1380,17 +1410,20 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,53 +1447,54 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3900</v>
       </c>
-      <c r="F20" s="3">
-        <v>1900</v>
-      </c>
       <c r="G20" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H20" s="3">
         <v>1500</v>
       </c>
       <c r="I20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,34 +1504,37 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>2300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>9700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1511,12 +1548,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-5700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1544,19 +1581,22 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1564,20 +1604,20 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1594,8 +1634,8 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1609,53 +1649,56 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9200</v>
       </c>
-      <c r="H23" s="3">
-        <v>12200</v>
-      </c>
       <c r="I23" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-9400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5800</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1666,60 +1709,63 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>300</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1730,8 +1776,8 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,53 +1853,56 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1861,81 +1913,87 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,53 +2261,56 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G32" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="H32" s="3">
         <v>-1500</v>
       </c>
       <c r="I32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J32" s="3">
         <v>12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,82 +2320,88 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,50 +2660,51 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E41" s="3">
         <v>24800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24200</v>
       </c>
-      <c r="H41" s="3">
-        <v>28300</v>
-      </c>
       <c r="I41" s="3">
-        <v>33200</v>
+        <v>28400</v>
       </c>
       <c r="J41" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K41" s="3">
         <v>40200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>38500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2628,52 +2715,55 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E42" s="3">
         <v>5800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5500</v>
       </c>
       <c r="G42" s="3">
         <v>5500</v>
       </c>
       <c r="H42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I42" s="3">
         <v>5400</v>
       </c>
-      <c r="I42" s="3">
-        <v>5300</v>
-      </c>
       <c r="J42" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K42" s="3">
         <v>5600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5600</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2689,8 +2779,8 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2704,50 +2794,53 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>33000</v>
+        <v>35200</v>
       </c>
       <c r="E43" s="3">
-        <v>43800</v>
+        <v>33100</v>
       </c>
       <c r="F43" s="3">
-        <v>44000</v>
+        <v>43900</v>
       </c>
       <c r="G43" s="3">
-        <v>52300</v>
+        <v>44100</v>
       </c>
       <c r="H43" s="3">
-        <v>30900</v>
+        <v>52400</v>
       </c>
       <c r="I43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="J43" s="3">
         <v>28600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,8 +2853,8 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,50 +2930,53 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15500</v>
+        <v>13200</v>
       </c>
       <c r="E45" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F45" s="3">
         <v>15900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11700</v>
       </c>
-      <c r="H45" s="3">
-        <v>10900</v>
-      </c>
       <c r="I45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J45" s="3">
         <v>22800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8400</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -2890,8 +2989,8 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
@@ -2899,50 +2998,53 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79100</v>
+        <v>91000</v>
       </c>
       <c r="E46" s="3">
-        <v>89400</v>
+        <v>79300</v>
       </c>
       <c r="F46" s="3">
-        <v>87000</v>
+        <v>89600</v>
       </c>
       <c r="G46" s="3">
-        <v>93600</v>
+        <v>87200</v>
       </c>
       <c r="H46" s="3">
-        <v>75600</v>
+        <v>93800</v>
       </c>
       <c r="I46" s="3">
-        <v>89900</v>
+        <v>75700</v>
       </c>
       <c r="J46" s="3">
+        <v>90100</v>
+      </c>
+      <c r="K46" s="3">
         <v>82800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>84600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>65000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>52200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53500</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2950,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
@@ -2959,45 +3061,48 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32700</v>
+        <v>32400</v>
       </c>
       <c r="E47" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F47" s="3">
         <v>32300</v>
       </c>
-      <c r="F47" s="3">
-        <v>24700</v>
-      </c>
       <c r="G47" s="3">
+        <v>24800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I47" s="3">
         <v>24400</v>
       </c>
-      <c r="H47" s="3">
-        <v>24400</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
-      </c>
-      <c r="M47" s="3">
-        <v>700</v>
       </c>
       <c r="N47" s="3">
         <v>700</v>
@@ -3006,51 +3111,54 @@
         <v>700</v>
       </c>
       <c r="P47" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q47" s="3">
         <v>8700</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>9000</v>
       </c>
       <c r="R47" s="3">
         <v>9000</v>
       </c>
       <c r="S47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="T47" s="3">
         <v>9100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8800</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3068,11 +3176,11 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3085,8 +3193,8 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3094,19 +3202,22 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>81300</v>
+        <v>81200</v>
       </c>
       <c r="E49" s="3">
         <v>81500</v>
       </c>
       <c r="F49" s="3">
-        <v>81800</v>
+        <v>81700</v>
       </c>
       <c r="G49" s="3">
         <v>82000</v>
@@ -3115,29 +3226,29 @@
         <v>82200</v>
       </c>
       <c r="I49" s="3">
-        <v>45200</v>
+        <v>82400</v>
       </c>
       <c r="J49" s="3">
         <v>45300</v>
       </c>
       <c r="K49" s="3">
+        <v>45300</v>
+      </c>
+      <c r="L49" s="3">
         <v>46900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>47500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>48600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3150,8 +3261,8 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,52 +3406,55 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>800</v>
       </c>
       <c r="G52" s="3">
         <v>800</v>
       </c>
       <c r="H52" s="3">
+        <v>800</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3346,16 +3466,19 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>196700</v>
+        <v>208000</v>
       </c>
       <c r="E54" s="3">
-        <v>206900</v>
+        <v>197100</v>
       </c>
       <c r="F54" s="3">
-        <v>196000</v>
+        <v>207400</v>
       </c>
       <c r="G54" s="3">
-        <v>202600</v>
+        <v>196400</v>
       </c>
       <c r="H54" s="3">
-        <v>184900</v>
+        <v>203100</v>
       </c>
       <c r="I54" s="3">
-        <v>150100</v>
+        <v>185300</v>
       </c>
       <c r="J54" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K54" s="3">
         <v>138000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>136000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>125500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>102800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>54600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>9000</v>
       </c>
       <c r="R54" s="3">
         <v>9000</v>
       </c>
       <c r="S54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="T54" s="3">
         <v>9100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,50 +3664,51 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E57" s="3">
         <v>6000</v>
       </c>
-      <c r="E57" s="3">
-        <v>16000</v>
-      </c>
       <c r="F57" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
-        <v>15100</v>
-      </c>
       <c r="H57" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I57" s="3">
         <v>8400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3590,8 +3721,8 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3613,8 +3747,8 @@
       <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -3622,29 +3756,29 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3656,60 +3790,63 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20600</v>
+        <v>17200</v>
       </c>
       <c r="E59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F59" s="3">
         <v>19900</v>
       </c>
-      <c r="F59" s="3">
-        <v>20400</v>
-      </c>
       <c r="G59" s="3">
-        <v>23300</v>
+        <v>20500</v>
       </c>
       <c r="H59" s="3">
+        <v>23400</v>
+      </c>
+      <c r="I59" s="3">
         <v>21800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3723,56 +3860,59 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E60" s="3">
         <v>27300</v>
       </c>
-      <c r="E60" s="3">
-        <v>36600</v>
-      </c>
       <c r="F60" s="3">
-        <v>26300</v>
+        <v>36700</v>
       </c>
       <c r="G60" s="3">
-        <v>38500</v>
+        <v>26400</v>
       </c>
       <c r="H60" s="3">
-        <v>30200</v>
+        <v>38600</v>
       </c>
       <c r="I60" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J60" s="3">
         <v>30500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>28400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29200</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
@@ -3786,16 +3926,19 @@
         <v>0</v>
       </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3836,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>200</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -3851,7 +3994,7 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -3859,49 +4002,52 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="E62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F62" s="3">
         <v>10200</v>
       </c>
-      <c r="F62" s="3">
-        <v>9800</v>
-      </c>
       <c r="G62" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="H62" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="I62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J62" s="3">
         <v>8100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>300</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
@@ -3915,8 +4061,8 @@
       <c r="T62" s="3">
         <v>300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
+      <c r="U62" s="3">
+        <v>300</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,52 +4274,55 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E66" s="3">
         <v>37000</v>
       </c>
-      <c r="E66" s="3">
-        <v>47000</v>
-      </c>
       <c r="F66" s="3">
+        <v>47100</v>
+      </c>
+      <c r="G66" s="3">
         <v>36500</v>
       </c>
-      <c r="G66" s="3">
-        <v>48800</v>
-      </c>
       <c r="H66" s="3">
-        <v>40900</v>
+        <v>48900</v>
       </c>
       <c r="I66" s="3">
+        <v>41000</v>
+      </c>
+      <c r="J66" s="3">
         <v>38600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
@@ -4179,13 +4337,16 @@
         <v>400</v>
       </c>
       <c r="V66" s="3">
+        <v>400</v>
+      </c>
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,50 +4640,53 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>96600</v>
+        <v>108500</v>
       </c>
       <c r="E72" s="3">
-        <v>97000</v>
+        <v>96800</v>
       </c>
       <c r="F72" s="3">
-        <v>96500</v>
+        <v>97300</v>
       </c>
       <c r="G72" s="3">
-        <v>91200</v>
+        <v>96700</v>
       </c>
       <c r="H72" s="3">
-        <v>81900</v>
+        <v>91400</v>
       </c>
       <c r="I72" s="3">
-        <v>70400</v>
+        <v>82000</v>
       </c>
       <c r="J72" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K72" s="3">
         <v>79700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>71600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>59200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>56300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47800</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
@@ -4526,16 +4700,19 @@
         <v>0</v>
       </c>
       <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
         <v>-100</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>159700</v>
+        <v>172600</v>
       </c>
       <c r="E76" s="3">
+        <v>160100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>160300</v>
+      </c>
+      <c r="G76" s="3">
         <v>159900</v>
       </c>
-      <c r="F76" s="3">
-        <v>159500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>153800</v>
-      </c>
       <c r="H76" s="3">
-        <v>143900</v>
+        <v>154200</v>
       </c>
       <c r="I76" s="3">
-        <v>111500</v>
+        <v>144200</v>
       </c>
       <c r="J76" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K76" s="3">
         <v>100300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>91100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>76300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>8600</v>
       </c>
       <c r="R76" s="3">
         <v>8600</v>
       </c>
       <c r="S76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="T76" s="3">
         <v>8700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8500</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
         <v>0</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,20 +5217,21 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5051,11 +5250,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -5063,8 +5262,8 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,20 +5623,23 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>7900</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5441,17 +5658,17 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5460,22 +5677,25 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5528,14 +5749,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -5543,8 +5764,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,20 +5921,23 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15600</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,41 +5956,44 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-9000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8800</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,20 +6287,23 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6070,8 +6316,8 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -6079,50 +6325,53 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>9100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8900</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6141,11 +6390,11 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -6153,8 +6402,8 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6174,19 +6423,22 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-9100</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -6206,17 +6458,17 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6228,15 +6480,18 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
